--- a/StructureDefinition-cdm-encounter.xlsx
+++ b/StructureDefinition-cdm-encounter.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3161" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3160" uniqueCount="485">
   <si>
     <t>Path</t>
   </si>
@@ -696,46 +696,49 @@
     <t>Concepts representing classification of patient encounter such as ambulatory (outpatient), inpatient, emergency, home health or others due to local variations.</t>
   </si>
   <si>
+    <t>http://ibm.com/fhir/cdm/ValueSet/encounter-class</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=LIST].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>PV1-2</t>
+  </si>
+  <si>
+    <t>Encounter.classHistory</t>
+  </si>
+  <si>
+    <t>List of past encounter classes</t>
+  </si>
+  <si>
+    <t>The class history permits the tracking of the encounters transitions without needing to go  through the resource history.  This would be used for a case where an admission starts of as an emergency encounter, then transitions into an inpatient scenario. Doing this and not restarting a new encounter ensures that any lab/diagnostic results can more easily follow the patient and not require re-processing and not get lost or cancelled during a kind of discharge from emergency to inpatient.</t>
+  </si>
+  <si>
+    <t>Encounter.classHistory.id</t>
+  </si>
+  <si>
+    <t>Encounter.classHistory.extension</t>
+  </si>
+  <si>
+    <t>Encounter.classHistory.modifierExtension</t>
+  </si>
+  <si>
+    <t>Encounter.classHistory.class</t>
+  </si>
+  <si>
+    <t>inpatient | outpatient | ambulatory | emergency +</t>
+  </si>
+  <si>
+    <t>inpatient | outpatient | ambulatory | emergency +.</t>
+  </si>
+  <si>
     <t>Classification of the encounter.</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=LIST].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>PV1-2</t>
-  </si>
-  <si>
-    <t>Encounter.classHistory</t>
-  </si>
-  <si>
-    <t>List of past encounter classes</t>
-  </si>
-  <si>
-    <t>The class history permits the tracking of the encounters transitions without needing to go  through the resource history.  This would be used for a case where an admission starts of as an emergency encounter, then transitions into an inpatient scenario. Doing this and not restarting a new encounter ensures that any lab/diagnostic results can more easily follow the patient and not require re-processing and not get lost or cancelled during a kind of discharge from emergency to inpatient.</t>
-  </si>
-  <si>
-    <t>Encounter.classHistory.id</t>
-  </si>
-  <si>
-    <t>Encounter.classHistory.extension</t>
-  </si>
-  <si>
-    <t>Encounter.classHistory.modifierExtension</t>
-  </si>
-  <si>
-    <t>Encounter.classHistory.class</t>
-  </si>
-  <si>
-    <t>inpatient | outpatient | ambulatory | emergency +</t>
-  </si>
-  <si>
-    <t>inpatient | outpatient | ambulatory | emergency +.</t>
   </si>
   <si>
     <t>Encounter.classHistory.period</t>
@@ -5665,11 +5668,9 @@
       <c r="W36" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="X36" t="s" s="2">
+      <c r="X36" s="2"/>
+      <c r="Y36" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>43</v>
@@ -5705,18 +5706,18 @@
         <v>43</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>220</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5742,10 +5743,10 @@
         <v>197</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5796,7 +5797,7 @@
         <v>43</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5825,7 +5826,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5934,7 +5935,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6045,7 +6046,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6158,7 +6159,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6184,10 +6185,10 @@
         <v>213</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6217,10 +6218,10 @@
         <v>145</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>43</v>
@@ -6238,7 +6239,7 @@
         <v>43</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>50</v>
@@ -6267,7 +6268,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6293,10 +6294,10 @@
         <v>167</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6347,7 +6348,7 @@
         <v>43</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>50</v>
@@ -6376,7 +6377,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6402,13 +6403,13 @@
         <v>140</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6434,13 +6435,13 @@
         <v>43</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>43</v>
@@ -6458,7 +6459,7 @@
         <v>43</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6473,21 +6474,21 @@
         <v>63</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6513,10 +6514,10 @@
         <v>140</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6543,13 +6544,13 @@
         <v>43</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>43</v>
@@ -6567,7 +6568,7 @@
         <v>43</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6582,7 +6583,7 @@
         <v>63</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>123</v>
@@ -6591,12 +6592,12 @@
         <v>43</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6622,10 +6623,10 @@
         <v>140</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6652,13 +6653,13 @@
         <v>43</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>43</v>
@@ -6676,7 +6677,7 @@
         <v>43</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6694,22 +6695,22 @@
         <v>43</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6728,16 +6729,16 @@
         <v>51</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6787,7 +6788,7 @@
         <v>43</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6802,21 +6803,21 @@
         <v>63</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6839,13 +6840,13 @@
         <v>51</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6896,7 +6897,7 @@
         <v>43</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6911,25 +6912,25 @@
         <v>63</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>123</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6948,13 +6949,13 @@
         <v>43</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7005,7 +7006,7 @@
         <v>43</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -7020,10 +7021,10 @@
         <v>63</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>43</v>
@@ -7034,7 +7035,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7060,10 +7061,10 @@
         <v>197</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7114,7 +7115,7 @@
         <v>43</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -7129,21 +7130,21 @@
         <v>63</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7252,7 +7253,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7363,7 +7364,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7476,7 +7477,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7502,13 +7503,13 @@
         <v>140</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7537,10 +7538,10 @@
         <v>145</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>43</v>
@@ -7558,7 +7559,7 @@
         <v>43</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7573,21 +7574,21 @@
         <v>63</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7613,10 +7614,10 @@
         <v>167</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7667,7 +7668,7 @@
         <v>43</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7685,18 +7686,18 @@
         <v>43</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7719,13 +7720,13 @@
         <v>51</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7776,7 +7777,7 @@
         <v>43</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7791,21 +7792,21 @@
         <v>63</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7828,13 +7829,13 @@
         <v>51</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7885,7 +7886,7 @@
         <v>43</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7900,21 +7901,21 @@
         <v>63</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7940,13 +7941,13 @@
         <v>167</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -7996,7 +7997,7 @@
         <v>43</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -8011,21 +8012,21 @@
         <v>63</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8048,16 +8049,16 @@
         <v>43</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8107,7 +8108,7 @@
         <v>43</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -8122,25 +8123,25 @@
         <v>63</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8162,13 +8163,13 @@
         <v>140</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8197,10 +8198,10 @@
         <v>76</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>43</v>
@@ -8218,7 +8219,7 @@
         <v>43</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -8233,25 +8234,25 @@
         <v>63</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8270,16 +8271,16 @@
         <v>51</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8329,7 +8330,7 @@
         <v>43</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8344,21 +8345,21 @@
         <v>63</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8384,10 +8385,10 @@
         <v>197</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8438,7 +8439,7 @@
         <v>43</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -8456,7 +8457,7 @@
         <v>43</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>43</v>
@@ -8467,7 +8468,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8576,7 +8577,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8687,7 +8688,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8800,11 +8801,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8823,16 +8824,16 @@
         <v>51</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -8882,7 +8883,7 @@
         <v>43</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>50</v>
@@ -8897,21 +8898,21 @@
         <v>63</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8937,10 +8938,10 @@
         <v>140</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8970,10 +8971,10 @@
         <v>76</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>43</v>
@@ -8991,7 +8992,7 @@
         <v>43</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -9020,7 +9021,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9043,13 +9044,13 @@
         <v>43</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9100,7 +9101,7 @@
         <v>43</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -9118,7 +9119,7 @@
         <v>43</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>43</v>
@@ -9129,7 +9130,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9152,16 +9153,16 @@
         <v>43</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9211,7 +9212,7 @@
         <v>43</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -9229,7 +9230,7 @@
         <v>43</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>43</v>
@@ -9240,7 +9241,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9266,13 +9267,13 @@
         <v>197</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9322,7 +9323,7 @@
         <v>43</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -9340,7 +9341,7 @@
         <v>43</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>43</v>
@@ -9351,7 +9352,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9460,7 +9461,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9571,7 +9572,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9684,7 +9685,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9710,10 +9711,10 @@
         <v>109</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9764,7 +9765,7 @@
         <v>43</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -9788,12 +9789,12 @@
         <v>43</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9816,13 +9817,13 @@
         <v>43</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -9873,7 +9874,7 @@
         <v>43</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -9891,7 +9892,7 @@
         <v>43</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>43</v>
@@ -9902,7 +9903,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9928,10 +9929,10 @@
         <v>140</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -9961,10 +9962,10 @@
         <v>76</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>43</v>
@@ -9982,7 +9983,7 @@
         <v>43</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
@@ -10000,18 +10001,18 @@
         <v>43</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10037,10 +10038,10 @@
         <v>140</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10067,13 +10068,13 @@
         <v>43</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>43</v>
@@ -10091,7 +10092,7 @@
         <v>43</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
@@ -10115,12 +10116,12 @@
         <v>43</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10146,16 +10147,16 @@
         <v>140</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>43</v>
@@ -10180,13 +10181,13 @@
         <v>43</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>43</v>
@@ -10204,7 +10205,7 @@
         <v>43</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
@@ -10222,18 +10223,18 @@
         <v>43</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10259,10 +10260,10 @@
         <v>140</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -10292,10 +10293,10 @@
         <v>76</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>43</v>
@@ -10313,7 +10314,7 @@
         <v>43</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
@@ -10331,18 +10332,18 @@
         <v>43</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10368,10 +10369,10 @@
         <v>140</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10401,10 +10402,10 @@
         <v>76</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>43</v>
@@ -10422,7 +10423,7 @@
         <v>43</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -10440,18 +10441,18 @@
         <v>43</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10474,13 +10475,13 @@
         <v>43</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10531,7 +10532,7 @@
         <v>43</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -10549,18 +10550,18 @@
         <v>43</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10586,10 +10587,10 @@
         <v>140</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10616,13 +10617,13 @@
         <v>43</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>43</v>
@@ -10640,7 +10641,7 @@
         <v>43</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
@@ -10658,18 +10659,18 @@
         <v>43</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10695,13 +10696,13 @@
         <v>197</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -10751,7 +10752,7 @@
         <v>43</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -10769,7 +10770,7 @@
         <v>43</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>43</v>
@@ -10780,7 +10781,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10889,7 +10890,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11000,7 +11001,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11113,7 +11114,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11136,13 +11137,13 @@
         <v>43</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -11193,7 +11194,7 @@
         <v>43</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>50</v>
@@ -11208,21 +11209,21 @@
         <v>63</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11248,13 +11249,13 @@
         <v>72</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -11283,10 +11284,10 @@
         <v>134</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>43</v>
@@ -11304,7 +11305,7 @@
         <v>43</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>41</v>
@@ -11322,7 +11323,7 @@
         <v>43</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>43</v>
@@ -11333,7 +11334,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11359,13 +11360,13 @@
         <v>140</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -11391,13 +11392,13 @@
         <v>43</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>43</v>
@@ -11415,7 +11416,7 @@
         <v>43</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>41</v>
@@ -11444,7 +11445,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11470,10 +11471,10 @@
         <v>167</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11524,7 +11525,7 @@
         <v>43</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>41</v>
@@ -11542,7 +11543,7 @@
         <v>43</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>43</v>
@@ -11553,7 +11554,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11579,10 +11580,10 @@
         <v>174</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11633,7 +11634,7 @@
         <v>43</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>41</v>
@@ -11648,21 +11649,21 @@
         <v>63</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11685,16 +11686,16 @@
         <v>43</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -11744,7 +11745,7 @@
         <v>43</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>41</v>
@@ -11759,10 +11760,10 @@
         <v>63</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>43</v>

--- a/StructureDefinition-cdm-encounter.xlsx
+++ b/StructureDefinition-cdm-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-20T17:48:04+00:00</t>
+    <t>2021-09-21T12:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-encounter.xlsx
+++ b/StructureDefinition-cdm-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T12:28:41+00:00</t>
+    <t>2021-09-28T19:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-encounter.xlsx
+++ b/StructureDefinition-cdm-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T19:40:31+00:00</t>
+    <t>2021-10-01T15:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-encounter.xlsx
+++ b/StructureDefinition-cdm-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T14:45:01+00:00</t>
+    <t>2021-12-16T17:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-encounter.xlsx
+++ b/StructureDefinition-cdm-encounter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3195" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3228" uniqueCount="523">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0</t>
+    <t>6.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-21T20:46:54+00:00</t>
+    <t>2022-05-31T20:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>IBM Health Data Connect Common Data Model definition of what fields we currently define for an encounter</t>
+    <t>Health Data Connect Common Data Model definition of what fields we currently define for an encounter</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -417,33 +417,47 @@
     <t>Encounter.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>insured</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/insured}
+</t>
+  </si>
+  <si>
+    <t>Insurance context for the encounter</t>
+  </si>
+  <si>
+    <t>Encounter.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Encounter.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -451,6 +465,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -477,9 +494,6 @@
     <t>Slice based on entry system</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Event.identifier</t>
   </si>
   <si>
@@ -510,11 +524,10 @@
     <t>Encounter.identifier.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -1919,7 +1932,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM91"/>
+  <dimension ref="A1:AM92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2867,7 +2880,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2886,17 +2899,15 @@
         <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>134</v>
-      </c>
+      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>77</v>
@@ -2933,16 +2944,14 @@
         <v>77</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>135</v>
@@ -2963,7 +2972,7 @@
         <v>77</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>77</v>
@@ -2974,11 +2983,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2991,26 +3002,22 @@
         <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>140</v>
-      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>77</v>
       </c>
@@ -3058,7 +3065,7 @@
         <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
@@ -3067,7 +3074,7 @@
         <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>136</v>
@@ -3076,7 +3083,7 @@
         <v>77</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>77</v>
@@ -3087,15 +3094,15 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>76</v>
@@ -3104,22 +3111,26 @@
         <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>77</v>
       </c>
@@ -3155,19 +3166,19 @@
         <v>77</v>
       </c>
       <c r="AA11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE11" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>75</v>
@@ -3179,24 +3190,24 @@
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3204,10 +3215,10 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>77</v>
@@ -3216,16 +3227,16 @@
         <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3264,59 +3275,59 @@
         <v>77</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AE12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>77</v>
@@ -3328,17 +3339,15 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="M13" t="s" s="2">
-        <v>134</v>
-      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>77</v>
@@ -3375,37 +3384,37 @@
         <v>77</v>
       </c>
       <c r="AA13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AB13" t="s" s="2">
+      <c r="AF13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>77</v>
@@ -3416,43 +3425,41 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L14" t="s" s="2">
-        <v>165</v>
-      </c>
       <c r="M14" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3476,60 +3483,60 @@
         <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AC14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3546,25 +3553,25 @@
         <v>77</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>77</v>
@@ -3589,11 +3596,13 @@
         <v>77</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="X15" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="Y15" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>77</v>
@@ -3611,7 +3620,7 @@
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
@@ -3629,18 +3638,18 @@
         <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>182</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3648,7 +3657,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>84</v>
@@ -3663,19 +3672,19 @@
         <v>85</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>100</v>
+        <v>178</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>77</v>
@@ -3688,7 +3697,7 @@
         <v>77</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>77</v>
@@ -3700,13 +3709,11 @@
         <v>77</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>77</v>
@@ -3724,7 +3731,7 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
@@ -3742,18 +3749,18 @@
         <v>77</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3776,18 +3783,20 @@
         <v>85</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3799,7 +3808,7 @@
         <v>77</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>77</v>
@@ -3835,7 +3844,7 @@
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -3853,18 +3862,18 @@
         <v>77</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3872,7 +3881,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>84</v>
@@ -3887,15 +3896,17 @@
         <v>85</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>201</v>
+        <v>86</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M18" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>77</v>
@@ -3908,7 +3919,7 @@
         <v>77</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>77</v>
@@ -3944,7 +3955,7 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -3962,18 +3973,18 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3996,17 +4007,15 @@
         <v>85</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>77</v>
@@ -4055,7 +4064,7 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -4073,22 +4082,20 @@
         <v>77</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
         <v>77</v>
       </c>
@@ -4109,15 +4116,17 @@
         <v>85</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>143</v>
+        <v>212</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>144</v>
+        <v>213</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>77</v>
@@ -4166,13 +4175,13 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>142</v>
+        <v>216</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>77</v>
@@ -4181,23 +4190,25 @@
         <v>97</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>150</v>
+        <v>217</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>152</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="C21" t="s" s="2">
         <v>77</v>
       </c>
@@ -4215,16 +4226,16 @@
         <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4275,47 +4286,47 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>77</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>77</v>
@@ -4327,17 +4338,15 @@
         <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="M22" t="s" s="2">
-        <v>134</v>
-      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>77</v>
@@ -4374,37 +4383,37 @@
         <v>77</v>
       </c>
       <c r="AA22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AB22" t="s" s="2">
+      <c r="AF22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>77</v>
@@ -4415,43 +4424,41 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>165</v>
-      </c>
       <c r="M23" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4460,7 +4467,7 @@
         <v>77</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -4475,60 +4482,60 @@
         <v>77</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4536,7 +4543,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>84</v>
@@ -4545,25 +4552,25 @@
         <v>77</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>77</v>
@@ -4573,7 +4580,7 @@
         <v>77</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>77</v>
@@ -4588,13 +4595,13 @@
         <v>77</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>218</v>
+        <v>173</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>77</v>
@@ -4612,7 +4619,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -4630,18 +4637,18 @@
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>182</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4649,7 +4656,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>84</v>
@@ -4664,19 +4671,19 @@
         <v>85</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>100</v>
+        <v>178</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>77</v>
@@ -4686,10 +4693,10 @@
         <v>77</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>77</v>
@@ -4701,13 +4708,13 @@
         <v>77</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>77</v>
@@ -4725,7 +4732,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -4743,18 +4750,18 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4777,18 +4784,20 @@
         <v>85</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4800,7 +4809,7 @@
         <v>77</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>77</v>
@@ -4836,7 +4845,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4854,18 +4863,18 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4888,15 +4897,17 @@
         <v>85</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>201</v>
+        <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>77</v>
@@ -4909,7 +4920,7 @@
         <v>77</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>77</v>
@@ -4945,7 +4956,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4963,18 +4974,18 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4997,17 +5008,15 @@
         <v>85</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -5056,7 +5065,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -5074,18 +5083,18 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5093,7 +5102,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>84</v>
@@ -5102,22 +5111,22 @@
         <v>77</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>106</v>
+        <v>212</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5143,13 +5152,13 @@
         <v>77</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>224</v>
+        <v>77</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>77</v>
@@ -5167,10 +5176,10 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>84</v>
@@ -5182,21 +5191,21 @@
         <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5204,31 +5213,31 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>231</v>
+        <v>106</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5254,13 +5263,13 @@
         <v>77</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>77</v>
+        <v>228</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>77</v>
+        <v>229</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>77</v>
@@ -5278,13 +5287,13 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>77</v>
@@ -5293,21 +5302,21 @@
         <v>97</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>77</v>
+        <v>230</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>157</v>
+        <v>231</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>77</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5318,7 +5327,7 @@
         <v>75</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>77</v>
@@ -5330,15 +5339,17 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>86</v>
+        <v>235</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>154</v>
+        <v>236</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5387,25 +5398,25 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>156</v>
+        <v>234</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
@@ -5416,18 +5427,18 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>77</v>
@@ -5439,17 +5450,15 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="M32" t="s" s="2">
-        <v>134</v>
-      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5498,25 +5507,25 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
@@ -5527,11 +5536,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>238</v>
+        <v>141</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5544,26 +5553,24 @@
         <v>77</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>239</v>
+        <v>163</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>240</v>
+        <v>164</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5611,7 +5618,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>241</v>
+        <v>166</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -5629,7 +5636,7 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
@@ -5640,39 +5647,43 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5696,13 +5707,13 @@
         <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>224</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>77</v>
@@ -5720,25 +5731,25 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
@@ -5749,7 +5760,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5772,13 +5783,13 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>201</v>
+        <v>106</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5805,13 +5816,13 @@
         <v>77</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>77</v>
+        <v>228</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>77</v>
+        <v>229</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>77</v>
@@ -5829,7 +5840,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>84</v>
@@ -5847,7 +5858,7 @@
         <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>77</v>
@@ -5858,7 +5869,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5878,10 +5889,10 @@
         <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>247</v>
+        <v>205</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>248</v>
@@ -5914,11 +5925,13 @@
         <v>77</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="X36" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y36" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>77</v>
@@ -5936,7 +5949,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>84</v>
@@ -5954,18 +5967,18 @@
         <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>251</v>
+        <v>161</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>252</v>
+        <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>253</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5973,10 +5986,10 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>77</v>
@@ -5985,16 +5998,16 @@
         <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6021,13 +6034,11 @@
         <v>77</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>77</v>
+        <v>254</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>77</v>
@@ -6045,13 +6056,13 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>77</v>
@@ -6063,18 +6074,18 @@
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>157</v>
+        <v>255</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>77</v>
+        <v>256</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>77</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6085,7 +6096,7 @@
         <v>75</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>77</v>
@@ -6097,13 +6108,13 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>86</v>
+        <v>235</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>154</v>
+        <v>259</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>155</v>
+        <v>260</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6154,25 +6165,25 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>156</v>
+        <v>258</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -6183,18 +6194,18 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>77</v>
@@ -6206,17 +6217,15 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="M39" t="s" s="2">
-        <v>134</v>
-      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>77</v>
@@ -6265,25 +6274,25 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -6294,11 +6303,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>238</v>
+        <v>141</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6311,26 +6320,24 @@
         <v>77</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>239</v>
+        <v>163</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>240</v>
+        <v>164</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6378,7 +6385,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>241</v>
+        <v>166</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -6396,7 +6403,7 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6407,39 +6414,43 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>247</v>
+        <v>130</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6463,13 +6474,13 @@
         <v>77</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>263</v>
+        <v>77</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>77</v>
@@ -6487,25 +6498,25 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6516,7 +6527,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6539,13 +6550,13 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6572,13 +6583,13 @@
         <v>77</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>77</v>
+        <v>267</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>77</v>
+        <v>268</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>77</v>
@@ -6596,7 +6607,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>84</v>
@@ -6614,7 +6625,7 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6625,7 +6636,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6633,10 +6644,10 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>77</v>
@@ -6645,20 +6656,18 @@
         <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M43" t="s" s="2">
         <v>271</v>
       </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>77</v>
@@ -6683,13 +6692,13 @@
         <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>272</v>
+        <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>273</v>
+        <v>77</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>274</v>
+        <v>77</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>77</v>
@@ -6707,13 +6716,13 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>77</v>
@@ -6722,21 +6731,21 @@
         <v>97</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>275</v>
+        <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>276</v>
+        <v>161</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>252</v>
+        <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>277</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6747,7 +6756,7 @@
         <v>75</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>77</v>
@@ -6759,15 +6768,17 @@
         <v>85</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -6792,37 +6803,37 @@
         <v>77</v>
       </c>
       <c r="W44" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE44" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="X44" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>278</v>
-      </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>77</v>
@@ -6831,21 +6842,21 @@
         <v>97</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>157</v>
+        <v>280</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>77</v>
+        <v>256</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6865,16 +6876,16 @@
         <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6901,14 +6912,14 @@
         <v>77</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="X45" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="Y45" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="Y45" t="s" s="2">
-        <v>287</v>
-      </c>
       <c r="Z45" t="s" s="2">
         <v>77</v>
       </c>
@@ -6925,7 +6936,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -6940,25 +6951,25 @@
         <v>97</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>288</v>
+        <v>161</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>289</v>
+        <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>292</v>
+        <v>77</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6974,20 +6985,18 @@
         <v>77</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>293</v>
+        <v>178</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>77</v>
@@ -7012,13 +7021,13 @@
         <v>77</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>77</v>
+        <v>290</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>77</v>
+        <v>291</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>77</v>
@@ -7036,7 +7045,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -7051,32 +7060,32 @@
         <v>97</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>297</v>
+        <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>77</v>
+        <v>296</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>77</v>
@@ -7088,15 +7097,17 @@
         <v>85</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>77</v>
@@ -7145,13 +7156,13 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>77</v>
@@ -7160,25 +7171,25 @@
         <v>97</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>157</v>
+        <v>302</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>309</v>
+        <v>77</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7194,16 +7205,16 @@
         <v>77</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7254,7 +7265,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
@@ -7269,25 +7280,25 @@
         <v>97</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>314</v>
+        <v>161</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>77</v>
+        <v>311</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>77</v>
+        <v>313</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7303,16 +7314,16 @@
         <v>77</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>231</v>
+        <v>314</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7363,7 +7374,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
@@ -7378,21 +7389,21 @@
         <v>97</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AK49" t="s" s="2">
-        <v>319</v>
-      </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>320</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7403,7 +7414,7 @@
         <v>75</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>77</v>
@@ -7412,16 +7423,16 @@
         <v>77</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>86</v>
+        <v>235</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>154</v>
+        <v>320</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>155</v>
+        <v>321</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7472,47 +7483,47 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>156</v>
+        <v>319</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>77</v>
+        <v>322</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>157</v>
+        <v>323</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>77</v>
+        <v>324</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>77</v>
@@ -7524,17 +7535,15 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="M51" t="s" s="2">
-        <v>134</v>
-      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>77</v>
@@ -7583,25 +7592,25 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7612,11 +7621,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>238</v>
+        <v>141</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7629,26 +7638,24 @@
         <v>77</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>239</v>
+        <v>163</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>240</v>
+        <v>164</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>77</v>
       </c>
@@ -7696,7 +7703,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>241</v>
+        <v>166</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
@@ -7714,7 +7721,7 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7725,11 +7732,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7742,24 +7749,26 @@
         <v>77</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>325</v>
+        <v>243</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>326</v>
+        <v>244</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7783,13 +7792,13 @@
         <v>77</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>326</v>
+        <v>77</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>328</v>
+        <v>77</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>77</v>
@@ -7807,7 +7816,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>324</v>
+        <v>245</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
@@ -7819,24 +7828,24 @@
         <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>329</v>
+        <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>330</v>
+        <v>98</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>331</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7847,7 +7856,7 @@
         <v>75</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>77</v>
@@ -7856,18 +7865,20 @@
         <v>77</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>77</v>
@@ -7892,13 +7903,13 @@
         <v>77</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>77</v>
+        <v>330</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>77</v>
+        <v>332</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>77</v>
@@ -7916,13 +7927,13 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>77</v>
@@ -7931,21 +7942,21 @@
         <v>97</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>77</v>
+        <v>333</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>336</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7965,16 +7976,16 @@
         <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8025,7 +8036,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
@@ -8040,21 +8051,21 @@
         <v>97</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>341</v>
+        <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>343</v>
+        <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8065,7 +8076,7 @@
         <v>75</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>77</v>
@@ -8077,13 +8088,13 @@
         <v>85</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8134,13 +8145,13 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>77</v>
@@ -8149,21 +8160,21 @@
         <v>97</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>77</v>
+        <v>347</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8174,7 +8185,7 @@
         <v>75</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>77</v>
@@ -8183,20 +8194,18 @@
         <v>77</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>201</v>
+        <v>350</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="L57" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>354</v>
-      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>77</v>
@@ -8245,13 +8254,13 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>77</v>
@@ -8260,21 +8269,21 @@
         <v>97</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>355</v>
+        <v>317</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>357</v>
+        <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8297,16 +8306,16 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>360</v>
+        <v>205</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8356,7 +8365,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
@@ -8371,32 +8380,32 @@
         <v>97</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>77</v>
+        <v>361</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>367</v>
+        <v>77</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>77</v>
@@ -8405,19 +8414,19 @@
         <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>174</v>
+        <v>364</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8443,13 +8452,13 @@
         <v>77</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>371</v>
+        <v>77</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>372</v>
+        <v>77</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>77</v>
@@ -8467,13 +8476,13 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>77</v>
@@ -8482,25 +8491,25 @@
         <v>97</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>375</v>
+        <v>77</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8519,16 +8528,16 @@
         <v>85</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>378</v>
+        <v>178</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8554,13 +8563,13 @@
         <v>77</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>77</v>
+        <v>375</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>77</v>
+        <v>376</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>77</v>
@@ -8578,7 +8587,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -8593,25 +8602,25 @@
         <v>97</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>77</v>
+        <v>371</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8630,15 +8639,17 @@
         <v>85</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>231</v>
+        <v>382</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>77</v>
@@ -8687,7 +8698,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
@@ -8702,16 +8713,16 @@
         <v>97</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>77</v>
+        <v>377</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>77</v>
+        <v>379</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>77</v>
+        <v>380</v>
       </c>
     </row>
     <row r="62">
@@ -8727,7 +8738,7 @@
         <v>75</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>77</v>
@@ -8736,16 +8747,16 @@
         <v>77</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>86</v>
+        <v>235</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>154</v>
+        <v>385</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>155</v>
+        <v>386</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8796,25 +8807,25 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>156</v>
+        <v>384</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>157</v>
+        <v>387</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
@@ -8825,18 +8836,18 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>77</v>
@@ -8848,17 +8859,15 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="L63" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="M63" t="s" s="2">
-        <v>134</v>
-      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>77</v>
@@ -8907,25 +8916,25 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
@@ -8936,11 +8945,11 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>238</v>
+        <v>141</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8953,26 +8962,24 @@
         <v>77</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>239</v>
+        <v>163</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>240</v>
+        <v>164</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>77</v>
       </c>
@@ -9020,7 +9027,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>241</v>
+        <v>166</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
@@ -9038,7 +9045,7 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9049,41 +9056,43 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>388</v>
+        <v>242</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>389</v>
+        <v>130</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>390</v>
+        <v>243</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>391</v>
+        <v>244</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9131,44 +9140,44 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>387</v>
+        <v>245</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>392</v>
+        <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>393</v>
+        <v>98</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>375</v>
+        <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>394</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>77</v>
+        <v>392</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>84</v>
@@ -9180,18 +9189,20 @@
         <v>77</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>174</v>
+        <v>393</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>77</v>
@@ -9216,13 +9227,13 @@
         <v>77</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>398</v>
+        <v>77</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>399</v>
+        <v>77</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>77</v>
@@ -9240,10 +9251,10 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>84</v>
@@ -9255,21 +9266,21 @@
         <v>97</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>77</v>
+        <v>396</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>157</v>
+        <v>397</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>77</v>
+        <v>379</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>77</v>
+        <v>398</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9292,13 +9303,13 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9325,13 +9336,13 @@
         <v>77</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>77</v>
+        <v>402</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>77</v>
@@ -9349,7 +9360,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
@@ -9367,7 +9378,7 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>404</v>
+        <v>161</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -9378,7 +9389,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9389,7 +9400,7 @@
         <v>75</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>77</v>
@@ -9401,17 +9412,15 @@
         <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="L68" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>409</v>
-      </c>
+      <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>77</v>
@@ -9460,13 +9469,13 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>77</v>
@@ -9478,7 +9487,7 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -9489,7 +9498,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9500,7 +9509,7 @@
         <v>75</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>77</v>
@@ -9512,16 +9521,16 @@
         <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>231</v>
+        <v>410</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9571,13 +9580,13 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>77</v>
@@ -9589,7 +9598,7 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -9600,7 +9609,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9623,15 +9632,17 @@
         <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>86</v>
+        <v>235</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>154</v>
+        <v>416</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>77</v>
@@ -9680,7 +9691,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>156</v>
+        <v>415</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>75</v>
@@ -9692,13 +9703,13 @@
         <v>77</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>157</v>
+        <v>419</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -9709,18 +9720,18 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>77</v>
@@ -9732,17 +9743,15 @@
         <v>77</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="L71" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="M71" t="s" s="2">
-        <v>134</v>
-      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>77</v>
@@ -9791,25 +9800,25 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
@@ -9820,11 +9829,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>238</v>
+        <v>141</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9837,26 +9846,24 @@
         <v>77</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>239</v>
+        <v>163</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>240</v>
+        <v>164</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>77</v>
       </c>
@@ -9904,7 +9911,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>241</v>
+        <v>166</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>75</v>
@@ -9922,7 +9929,7 @@
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
@@ -9933,39 +9940,43 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>420</v>
+        <v>243</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>77</v>
       </c>
@@ -10013,31 +10024,31 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>419</v>
+        <v>245</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>422</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74">
@@ -10065,13 +10076,13 @@
         <v>77</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10140,18 +10151,18 @@
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>427</v>
+        <v>154</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>77</v>
+        <v>426</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10174,7 +10185,7 @@
         <v>77</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>174</v>
+        <v>428</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>429</v>
@@ -10207,13 +10218,13 @@
         <v>77</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>431</v>
+        <v>77</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>432</v>
+        <v>77</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>77</v>
@@ -10231,7 +10242,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>75</v>
@@ -10249,18 +10260,18 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>434</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10283,13 +10294,13 @@
         <v>77</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10316,13 +10327,13 @@
         <v>77</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>272</v>
+        <v>110</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>77</v>
@@ -10340,7 +10351,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>75</v>
@@ -10358,18 +10369,18 @@
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>157</v>
+        <v>437</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10380,7 +10391,7 @@
         <v>75</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>77</v>
@@ -10392,20 +10403,16 @@
         <v>77</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>445</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>77</v>
       </c>
@@ -10429,13 +10436,13 @@
         <v>77</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>77</v>
@@ -10453,13 +10460,13 @@
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>77</v>
@@ -10471,18 +10478,18 @@
         <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>448</v>
+        <v>161</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10505,16 +10512,20 @@
         <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>449</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>77</v>
       </c>
@@ -10538,13 +10549,13 @@
         <v>77</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>110</v>
+        <v>276</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>77</v>
@@ -10562,7 +10573,7 @@
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>75</v>
@@ -10580,18 +10591,18 @@
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10614,13 +10625,13 @@
         <v>77</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10650,10 +10661,10 @@
         <v>110</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>77</v>
@@ -10671,7 +10682,7 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>75</v>
@@ -10689,18 +10700,18 @@
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10711,7 +10722,7 @@
         <v>75</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>77</v>
@@ -10723,13 +10734,13 @@
         <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>424</v>
+        <v>178</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10756,13 +10767,13 @@
         <v>77</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>77</v>
+        <v>464</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>77</v>
+        <v>465</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>77</v>
@@ -10780,13 +10791,13 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>77</v>
@@ -10798,18 +10809,18 @@
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM80" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>468</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10832,13 +10843,13 @@
         <v>77</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>174</v>
+        <v>428</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10865,13 +10876,13 @@
         <v>77</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>272</v>
+        <v>77</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>472</v>
+        <v>77</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>473</v>
+        <v>77</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>77</v>
@@ -10889,7 +10900,7 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>75</v>
@@ -10907,18 +10918,18 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10929,7 +10940,7 @@
         <v>75</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>77</v>
@@ -10941,17 +10952,15 @@
         <v>77</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>231</v>
+        <v>178</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>479</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>77</v>
@@ -10976,13 +10985,13 @@
         <v>77</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>77</v>
+        <v>476</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>77</v>
+        <v>477</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>77</v>
@@ -11000,13 +11009,13 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>77</v>
@@ -11018,18 +11027,18 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>77</v>
+        <v>479</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11040,7 +11049,7 @@
         <v>75</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>77</v>
@@ -11052,15 +11061,17 @@
         <v>77</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>86</v>
+        <v>235</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>154</v>
+        <v>481</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M83" s="2"/>
+        <v>482</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>483</v>
+      </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>77</v>
@@ -11109,25 +11120,25 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>156</v>
+        <v>480</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>157</v>
+        <v>484</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
@@ -11138,18 +11149,18 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>77</v>
@@ -11161,17 +11172,15 @@
         <v>77</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="L84" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="M84" t="s" s="2">
-        <v>134</v>
-      </c>
+      <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>77</v>
@@ -11220,25 +11229,25 @@
         <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
@@ -11249,11 +11258,11 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>238</v>
+        <v>141</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11266,26 +11275,24 @@
         <v>77</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>239</v>
+        <v>163</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>240</v>
+        <v>164</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>77</v>
       </c>
@@ -11333,7 +11340,7 @@
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>241</v>
+        <v>166</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>75</v>
@@ -11351,7 +11358,7 @@
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
@@ -11362,39 +11369,43 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>485</v>
+        <v>130</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>486</v>
+        <v>243</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="O86" t="s" s="2">
         <v>77</v>
       </c>
@@ -11442,36 +11453,36 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>484</v>
+        <v>245</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>488</v>
+        <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>342</v>
+        <v>98</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>489</v>
+        <v>77</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>490</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11479,7 +11490,7 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F87" t="s" s="2">
         <v>84</v>
@@ -11494,17 +11505,15 @@
         <v>77</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>106</v>
+        <v>489</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>494</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>77</v>
@@ -11529,13 +11538,13 @@
         <v>77</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>495</v>
+        <v>77</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>496</v>
+        <v>77</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>77</v>
@@ -11553,10 +11562,10 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>84</v>
@@ -11568,21 +11577,21 @@
         <v>97</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>77</v>
+        <v>492</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>497</v>
+        <v>346</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>77</v>
+        <v>493</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>77</v>
+        <v>494</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11605,16 +11614,16 @@
         <v>77</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -11640,13 +11649,13 @@
         <v>77</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>272</v>
+        <v>172</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>77</v>
@@ -11664,7 +11673,7 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>75</v>
@@ -11682,7 +11691,7 @@
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>77</v>
+        <v>501</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
@@ -11693,7 +11702,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11716,15 +11725,17 @@
         <v>77</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="L89" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="M89" s="2"/>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>77</v>
@@ -11749,13 +11760,13 @@
         <v>77</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>77</v>
+        <v>506</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>77</v>
+        <v>507</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>77</v>
@@ -11773,7 +11784,7 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>75</v>
@@ -11791,7 +11802,7 @@
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>335</v>
+        <v>77</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
@@ -11802,7 +11813,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11825,13 +11836,13 @@
         <v>77</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11882,7 +11893,7 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>75</v>
@@ -11897,21 +11908,21 @@
         <v>97</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>341</v>
+        <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>510</v>
+        <v>339</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>511</v>
+        <v>77</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11934,17 +11945,15 @@
         <v>77</v>
       </c>
       <c r="J91" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="K91" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>516</v>
-      </c>
+      <c r="M91" s="2"/>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>77</v>
@@ -11993,7 +12002,7 @@
         <v>77</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>75</v>
@@ -12008,15 +12017,126 @@
         <v>97</v>
       </c>
       <c r="AJ91" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J92" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="AK91" t="s" s="2">
+      <c r="K92" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="AL91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM91" t="s" s="2">
+      <c r="L92" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM92" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-cdm-encounter.xlsx
+++ b/StructureDefinition-cdm-encounter.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.0</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T20:10:14+00:00</t>
+    <t>2022-06-06T15:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-encounter.xlsx
+++ b/StructureDefinition-cdm-encounter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3228" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3433" uniqueCount="545">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.1</t>
+    <t>7.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T15:56:40+00:00</t>
+    <t>2022-09-01T20:48:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -441,6 +441,90 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>claimType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/claim-type}
+</t>
+  </si>
+  <si>
+    <t>Type of claim determined from the clinical source and not adjudicated claim</t>
+  </si>
+  <si>
+    <t>Encounter.extension.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Encounter.extension.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Encounter.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://ibm.com/fhir/cdm/StructureDefinition/claim-type</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Encounter.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://ibm.com/fhir/cdm/ValueSet/claim-type</t>
+  </si>
+  <si>
     <t>insured</t>
   </si>
   <si>
@@ -509,18 +593,6 @@
     <t>Encounter.identifier.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Encounter.identifier.extension</t>
   </si>
   <si>
@@ -530,12 +602,6 @@
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
     <t>Encounter.identifier.use</t>
   </si>
   <si>
@@ -569,10 +635,6 @@
     <t>Encounter.identifier.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>Description of identifier</t>
   </si>
   <si>
@@ -583,9 +645,6 @@
   </si>
   <si>
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>http://ibm.com/fhir/cdm/ValueSet/identifier-type</t>
@@ -1202,11 +1261,20 @@
     <t>Encounter.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Procedure|Observation|ImmunizationRecommendation)
+    <t xml:space="preserve">Reference(Condition|Procedure|Observation|ImmunizationRecommendation) {http://ibm.com/fhir/cdm/StructureDefinition/reference-with-sequence}
 </t>
   </si>
   <si>
-    <t>Reason the encounter takes place (reference)</t>
+    <t>A reference from one resource to another</t>
+  </si>
+  <si>
+    <t>A reference from one resource to another.</t>
+  </si>
+  <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
+    <t>The target of a resource reference is a RIM entry point (Act, Role, or Entity)</t>
   </si>
   <si>
     <t>Encounter.diagnosis</t>
@@ -1932,7 +2000,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM92"/>
+  <dimension ref="A1:AM98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1941,45 +2009,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.67578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.25390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="116.3203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.25" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.25390625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="45.671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="45.67578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="102.6171875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="191.12890625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="191.1328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2996,7 +3064,7 @@
         <v>75</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>77</v>
@@ -3098,39 +3166,35 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L11" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>145</v>
-      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>77</v>
       </c>
@@ -3178,25 +3242,25 @@
         <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>77</v>
@@ -3207,7 +3271,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3215,10 +3279,10 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>77</v>
@@ -3227,16 +3291,16 @@
         <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3275,10 +3339,10 @@
         <v>77</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>77</v>
@@ -3299,24 +3363,24 @@
         <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3324,7 +3388,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>84</v>
@@ -3339,22 +3403,24 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M13" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>77</v>
@@ -3396,10 +3462,10 @@
         <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>84</v>
@@ -3414,7 +3480,7 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>77</v>
@@ -3425,18 +3491,18 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>77</v>
@@ -3448,17 +3514,15 @@
         <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>77</v>
@@ -3495,37 +3559,35 @@
         <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>77</v>
@@ -3536,9 +3598,11 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="C15" t="s" s="2">
         <v>77</v>
       </c>
@@ -3553,26 +3617,22 @@
         <v>77</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>77</v>
       </c>
@@ -3596,13 +3656,11 @@
         <v>77</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>77</v>
@@ -3620,7 +3678,7 @@
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
@@ -3638,20 +3696,22 @@
         <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>176</v>
+        <v>98</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="C16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3660,7 +3720,7 @@
         <v>75</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>77</v>
@@ -3669,23 +3729,19 @@
         <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3709,11 +3765,13 @@
         <v>77</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="X16" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y16" t="s" s="2">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>77</v>
@@ -3731,71 +3789,71 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>186</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>77</v>
@@ -3808,7 +3866,7 @@
         <v>77</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>77</v>
@@ -3844,36 +3902,36 @@
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>194</v>
+        <v>98</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>195</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3884,7 +3942,7 @@
         <v>84</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>77</v>
@@ -3896,17 +3954,15 @@
         <v>85</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>86</v>
+        <v>175</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>77</v>
@@ -3919,7 +3975,7 @@
         <v>77</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>77</v>
@@ -3943,25 +3999,25 @@
         <v>77</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="AC18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>77</v>
@@ -3970,21 +4026,21 @@
         <v>97</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>203</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4004,16 +4060,16 @@
         <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>205</v>
+        <v>86</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>206</v>
+        <v>141</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>207</v>
+        <v>142</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4064,7 +4120,7 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>208</v>
+        <v>143</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -4076,35 +4132,35 @@
         <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>209</v>
+        <v>144</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>210</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>77</v>
@@ -4113,19 +4169,19 @@
         <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>212</v>
+        <v>130</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>215</v>
+        <v>171</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4163,52 +4219,50 @@
         <v>77</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>216</v>
+        <v>147</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>217</v>
+        <v>144</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>218</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>77</v>
       </c>
@@ -4223,22 +4277,26 @@
         <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>77</v>
       </c>
@@ -4262,13 +4320,13 @@
         <v>77</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>77</v>
@@ -4286,13 +4344,13 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>147</v>
+        <v>196</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>77</v>
@@ -4301,21 +4359,21 @@
         <v>97</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>156</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4335,19 +4393,23 @@
         <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4371,13 +4433,11 @@
         <v>77</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>77</v>
@@ -4395,7 +4455,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -4407,35 +4467,35 @@
         <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>77</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>77</v>
@@ -4444,21 +4504,23 @@
         <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4470,7 +4532,7 @@
         <v>77</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>77</v>
@@ -4494,48 +4556,48 @@
         <v>77</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>161</v>
+        <v>213</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>77</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>167</v>
+        <v>215</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4543,7 +4605,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>84</v>
@@ -4552,26 +4614,24 @@
         <v>77</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>168</v>
+        <v>216</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4580,46 +4640,46 @@
         <v>77</v>
       </c>
       <c r="R24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -4637,18 +4697,18 @@
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>176</v>
+        <v>221</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>98</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4656,7 +4716,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>84</v>
@@ -4671,20 +4731,16 @@
         <v>85</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4693,7 +4749,7 @@
         <v>77</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="S25" t="s" s="2">
         <v>77</v>
@@ -4708,13 +4764,13 @@
         <v>77</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>222</v>
+        <v>77</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>223</v>
+        <v>77</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>77</v>
@@ -4732,7 +4788,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>185</v>
+        <v>227</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -4750,18 +4806,18 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>176</v>
+        <v>228</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>186</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4784,20 +4840,18 @@
         <v>85</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>100</v>
+        <v>231</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>188</v>
+        <v>232</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4809,7 +4863,7 @@
         <v>77</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>77</v>
@@ -4845,7 +4899,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4863,20 +4917,22 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>195</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="C27" t="s" s="2">
         <v>77</v>
       </c>
@@ -4897,17 +4953,15 @@
         <v>85</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>86</v>
+        <v>175</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>77</v>
@@ -4920,7 +4974,7 @@
         <v>77</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>77</v>
@@ -4956,13 +5010,13 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>77</v>
@@ -4971,21 +5025,21 @@
         <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>203</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5005,16 +5059,16 @@
         <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>205</v>
+        <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>206</v>
+        <v>141</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>207</v>
+        <v>142</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -5065,7 +5119,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>208</v>
+        <v>143</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -5077,35 +5131,35 @@
         <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>209</v>
+        <v>144</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>210</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>77</v>
@@ -5114,19 +5168,19 @@
         <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>212</v>
+        <v>130</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>215</v>
+        <v>171</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5164,48 +5218,48 @@
         <v>77</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>216</v>
+        <v>147</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>217</v>
+        <v>144</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>218</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5213,7 +5267,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>84</v>
@@ -5231,15 +5285,17 @@
         <v>106</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
       </c>
@@ -5248,7 +5304,7 @@
         <v>77</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>77</v>
+        <v>239</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>77</v>
@@ -5263,13 +5319,13 @@
         <v>77</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>77</v>
@@ -5287,10 +5343,10 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>84</v>
@@ -5302,21 +5358,21 @@
         <v>97</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>230</v>
+        <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>232</v>
+        <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>233</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5324,10 +5380,10 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>77</v>
@@ -5336,21 +5392,23 @@
         <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>235</v>
+        <v>155</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5359,7 +5417,7 @@
         <v>77</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>77</v>
@@ -5374,13 +5432,13 @@
         <v>77</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>77</v>
@@ -5398,13 +5456,13 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>77</v>
@@ -5416,18 +5474,18 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>77</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5447,19 +5505,23 @@
         <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>158</v>
+        <v>207</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5471,7 +5533,7 @@
         <v>77</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>77</v>
@@ -5507,7 +5569,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -5519,35 +5581,35 @@
         <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>161</v>
+        <v>213</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>77</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>77</v>
@@ -5556,19 +5618,19 @@
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>163</v>
+        <v>216</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>164</v>
+        <v>217</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5582,7 +5644,7 @@
         <v>77</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>77</v>
@@ -5618,72 +5680,68 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>77</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>242</v>
+        <v>77</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>130</v>
+        <v>224</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5731,36 +5789,36 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>98</v>
+        <v>228</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>77</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5768,7 +5826,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>84</v>
@@ -5780,18 +5838,20 @@
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>106</v>
+        <v>231</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>77</v>
@@ -5816,13 +5876,13 @@
         <v>77</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>229</v>
+        <v>77</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>77</v>
@@ -5840,10 +5900,10 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>84</v>
@@ -5858,18 +5918,18 @@
         <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>161</v>
+        <v>236</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>77</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5886,21 +5946,23 @@
         <v>77</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>205</v>
+        <v>106</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>77</v>
@@ -5925,13 +5987,13 @@
         <v>77</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>77</v>
+        <v>247</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>77</v>
@@ -5949,7 +6011,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>84</v>
@@ -5964,21 +6026,21 @@
         <v>97</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>161</v>
+        <v>250</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>77</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5986,10 +6048,10 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>77</v>
@@ -5998,18 +6060,20 @@
         <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>77</v>
@@ -6034,11 +6098,13 @@
         <v>77</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="X37" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y37" t="s" s="2">
-        <v>254</v>
+        <v>77</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>77</v>
@@ -6056,13 +6122,13 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>77</v>
@@ -6074,13 +6140,13 @@
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>255</v>
+        <v>144</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>256</v>
+        <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>257</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38">
@@ -6096,7 +6162,7 @@
         <v>75</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>77</v>
@@ -6108,13 +6174,13 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>235</v>
+        <v>86</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>259</v>
+        <v>141</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>260</v>
+        <v>142</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6165,25 +6231,25 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>258</v>
+        <v>143</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -6194,18 +6260,18 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>77</v>
@@ -6217,15 +6283,17 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>77</v>
@@ -6274,25 +6342,25 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -6303,11 +6371,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>141</v>
+        <v>261</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6320,24 +6388,26 @@
         <v>77</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>130</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>163</v>
+        <v>262</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>164</v>
+        <v>263</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6385,7 +6455,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>166</v>
+        <v>264</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -6403,7 +6473,7 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6414,43 +6484,39 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>242</v>
+        <v>77</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6474,13 +6540,13 @@
         <v>77</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>77</v>
+        <v>247</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>77</v>
@@ -6498,25 +6564,25 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6527,7 +6593,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6550,13 +6616,13 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6583,13 +6649,13 @@
         <v>77</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>268</v>
+        <v>77</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>77</v>
@@ -6607,7 +6673,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>84</v>
@@ -6625,7 +6691,7 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6656,16 +6722,16 @@
         <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>205</v>
+        <v>270</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6692,13 +6758,11 @@
         <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>77</v>
+        <v>273</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>77</v>
@@ -6734,18 +6798,18 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>161</v>
+        <v>274</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6765,20 +6829,18 @@
         <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>178</v>
+        <v>254</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -6803,31 +6865,31 @@
         <v>77</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>276</v>
+        <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE44" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -6842,21 +6904,21 @@
         <v>97</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>280</v>
+        <v>144</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>256</v>
+        <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>281</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6876,16 +6938,16 @@
         <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>178</v>
+        <v>86</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>283</v>
+        <v>141</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>284</v>
+        <v>142</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6912,13 +6974,13 @@
         <v>77</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>276</v>
+        <v>77</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>285</v>
+        <v>77</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>77</v>
@@ -6936,7 +6998,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>282</v>
+        <v>143</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -6948,35 +7010,35 @@
         <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>287</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>77</v>
@@ -6988,15 +7050,17 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>289</v>
+        <v>186</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>77</v>
@@ -7021,13 +7085,13 @@
         <v>77</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>276</v>
+        <v>77</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>290</v>
+        <v>77</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>291</v>
+        <v>77</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>77</v>
@@ -7045,70 +7109,72 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>288</v>
+        <v>147</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>292</v>
+        <v>144</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>293</v>
+        <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>294</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>297</v>
+        <v>130</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7156,36 +7222,36 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>302</v>
+        <v>98</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>303</v>
+        <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>304</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7193,10 +7259,10 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>77</v>
@@ -7205,16 +7271,16 @@
         <v>77</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7241,13 +7307,13 @@
         <v>77</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>77</v>
+        <v>286</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>77</v>
+        <v>287</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>77</v>
@@ -7265,13 +7331,13 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>77</v>
@@ -7280,32 +7346,32 @@
         <v>97</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>309</v>
+        <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>310</v>
+        <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>311</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>313</v>
+        <v>77</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>77</v>
@@ -7317,13 +7383,13 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>314</v>
+        <v>224</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7374,13 +7440,13 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>77</v>
@@ -7389,10 +7455,10 @@
         <v>97</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>317</v>
+        <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>318</v>
+        <v>144</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7403,7 +7469,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7426,15 +7492,17 @@
         <v>85</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>235</v>
+        <v>155</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>77</v>
@@ -7459,13 +7527,13 @@
         <v>77</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>77</v>
+        <v>295</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>77</v>
+        <v>296</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>77</v>
+        <v>297</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>77</v>
@@ -7483,7 +7551,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
@@ -7498,21 +7566,21 @@
         <v>97</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>324</v>
+        <v>300</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7532,16 +7600,16 @@
         <v>77</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>158</v>
+        <v>302</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>159</v>
+        <v>303</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7568,13 +7636,13 @@
         <v>77</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>77</v>
+        <v>295</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>77</v>
+        <v>304</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>77</v>
+        <v>305</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>77</v>
@@ -7592,7 +7660,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>160</v>
+        <v>301</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -7604,35 +7672,35 @@
         <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>77</v>
+        <v>298</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>77</v>
+        <v>306</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>77</v>
@@ -7644,17 +7712,15 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>163</v>
+        <v>308</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>77</v>
@@ -7679,13 +7745,13 @@
         <v>77</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>77</v>
+        <v>295</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>77</v>
+        <v>309</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>77</v>
@@ -7703,72 +7769,70 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>166</v>
+        <v>307</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>161</v>
+        <v>311</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>77</v>
+        <v>312</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>77</v>
+        <v>313</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>242</v>
+        <v>315</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>130</v>
+        <v>316</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>243</v>
+        <v>317</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>244</v>
+        <v>318</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7816,36 +7880,36 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>245</v>
+        <v>314</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>77</v>
+        <v>320</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>98</v>
+        <v>321</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>77</v>
+        <v>322</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>77</v>
+        <v>323</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7868,17 +7932,15 @@
         <v>85</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>178</v>
+        <v>325</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>77</v>
@@ -7903,13 +7965,13 @@
         <v>77</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>330</v>
+        <v>77</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>332</v>
+        <v>77</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>77</v>
@@ -7927,7 +7989,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -7942,32 +8004,32 @@
         <v>97</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>334</v>
+        <v>144</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>77</v>
+        <v>329</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>77</v>
+        <v>332</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>77</v>
@@ -7979,13 +8041,13 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>205</v>
+        <v>333</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8036,13 +8098,13 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>77</v>
@@ -8051,21 +8113,21 @@
         <v>97</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>77</v>
+        <v>336</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>340</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8076,7 +8138,7 @@
         <v>75</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>77</v>
@@ -8088,13 +8150,13 @@
         <v>85</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>342</v>
+        <v>254</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8145,13 +8207,13 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>77</v>
@@ -8160,21 +8222,21 @@
         <v>97</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>347</v>
+        <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8185,7 +8247,7 @@
         <v>75</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>77</v>
@@ -8194,16 +8256,16 @@
         <v>77</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>350</v>
+        <v>86</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>351</v>
+        <v>141</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>352</v>
+        <v>142</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8254,47 +8316,47 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>349</v>
+        <v>143</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>317</v>
+        <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>353</v>
+        <v>144</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>354</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>77</v>
@@ -8306,16 +8368,16 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>205</v>
+        <v>130</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>356</v>
+        <v>186</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>357</v>
+        <v>187</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>358</v>
+        <v>171</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8365,70 +8427,72 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>355</v>
+        <v>147</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>359</v>
+        <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>360</v>
+        <v>144</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>361</v>
+        <v>77</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>362</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>364</v>
+        <v>130</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>365</v>
+        <v>262</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>366</v>
+        <v>263</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8476,40 +8540,40 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>363</v>
+        <v>264</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>359</v>
+        <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>368</v>
+        <v>98</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>369</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>371</v>
+        <v>77</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8528,16 +8592,16 @@
         <v>85</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8563,13 +8627,13 @@
         <v>77</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>375</v>
+        <v>349</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>77</v>
@@ -8587,7 +8651,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -8602,32 +8666,32 @@
         <v>97</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>379</v>
+        <v>77</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>380</v>
+        <v>354</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>381</v>
+        <v>355</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>371</v>
+        <v>77</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>77</v>
@@ -8636,20 +8700,18 @@
         <v>77</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>382</v>
+        <v>224</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>383</v>
+        <v>356</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>77</v>
@@ -8698,13 +8760,13 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>381</v>
+        <v>355</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>77</v>
@@ -8713,21 +8775,21 @@
         <v>97</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>377</v>
+        <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>379</v>
+        <v>77</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>380</v>
+        <v>359</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8738,7 +8800,7 @@
         <v>75</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>77</v>
@@ -8750,13 +8812,13 @@
         <v>85</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>235</v>
+        <v>361</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8807,13 +8869,13 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>77</v>
@@ -8822,21 +8884,21 @@
         <v>97</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>77</v>
+        <v>364</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>77</v>
+        <v>366</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>77</v>
+        <v>367</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8847,7 +8909,7 @@
         <v>75</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>77</v>
@@ -8856,16 +8918,16 @@
         <v>77</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>86</v>
+        <v>369</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>158</v>
+        <v>370</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>159</v>
+        <v>371</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8916,47 +8978,47 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>160</v>
+        <v>368</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>77</v>
+        <v>336</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>161</v>
+        <v>372</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>77</v>
+        <v>373</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>77</v>
@@ -8968,16 +9030,16 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>130</v>
+        <v>224</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>163</v>
+        <v>375</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>164</v>
+        <v>376</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>144</v>
+        <v>377</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9027,72 +9089,70 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>166</v>
+        <v>374</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>77</v>
+        <v>378</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>161</v>
+        <v>379</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>77</v>
+        <v>380</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>77</v>
+        <v>381</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>242</v>
+        <v>77</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>130</v>
+        <v>383</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>243</v>
+        <v>384</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>244</v>
+        <v>385</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9140,47 +9200,47 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>245</v>
+        <v>382</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>77</v>
+        <v>378</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>98</v>
+        <v>387</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>77</v>
+        <v>388</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>77</v>
@@ -9192,16 +9252,16 @@
         <v>85</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9227,13 +9287,13 @@
         <v>77</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>77</v>
+        <v>394</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>77</v>
+        <v>395</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>77</v>
@@ -9251,13 +9311,13 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>77</v>
@@ -9272,15 +9332,15 @@
         <v>397</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9291,7 +9351,7 @@
         <v>75</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>77</v>
@@ -9300,18 +9360,20 @@
         <v>77</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>178</v>
+        <v>401</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>77</v>
@@ -9336,13 +9398,13 @@
         <v>77</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>402</v>
+        <v>77</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>403</v>
+        <v>77</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>77</v>
@@ -9360,13 +9422,13 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>77</v>
@@ -9378,7 +9440,7 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>161</v>
+        <v>405</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -9389,7 +9451,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9400,7 +9462,7 @@
         <v>75</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>77</v>
@@ -9409,16 +9471,16 @@
         <v>77</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>405</v>
+        <v>254</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9469,13 +9531,13 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>77</v>
@@ -9487,7 +9549,7 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -9498,7 +9560,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9509,7 +9571,7 @@
         <v>75</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>77</v>
@@ -9521,17 +9583,15 @@
         <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>410</v>
+        <v>86</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>411</v>
+        <v>141</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>413</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -9580,25 +9640,25 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>409</v>
+        <v>143</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>414</v>
+        <v>144</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -9609,18 +9669,18 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>77</v>
@@ -9632,16 +9692,16 @@
         <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>235</v>
+        <v>130</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>416</v>
+        <v>186</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>417</v>
+        <v>187</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>418</v>
+        <v>171</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9691,25 +9751,25 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>415</v>
+        <v>147</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>419</v>
+        <v>144</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -9720,39 +9780,43 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>158</v>
+        <v>262</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>77</v>
       </c>
@@ -9800,25 +9864,25 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>160</v>
+        <v>264</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
@@ -9829,18 +9893,18 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>141</v>
+        <v>414</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>77</v>
@@ -9849,19 +9913,19 @@
         <v>77</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>130</v>
+        <v>415</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>163</v>
+        <v>416</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>164</v>
+        <v>417</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>144</v>
+        <v>393</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9911,72 +9975,68 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>166</v>
+        <v>413</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>77</v>
+        <v>418</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>161</v>
+        <v>419</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>77</v>
+        <v>398</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>77</v>
+        <v>420</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>242</v>
+        <v>77</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>243</v>
+        <v>422</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>77</v>
       </c>
@@ -10000,13 +10060,13 @@
         <v>77</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>77</v>
+        <v>424</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>77</v>
+        <v>425</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>77</v>
@@ -10024,25 +10084,25 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>245</v>
+        <v>421</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -10053,7 +10113,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10076,13 +10136,13 @@
         <v>77</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>148</v>
+        <v>427</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10133,7 +10193,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>75</v>
@@ -10151,18 +10211,18 @@
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>154</v>
+        <v>430</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>426</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10173,7 +10233,7 @@
         <v>75</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>77</v>
@@ -10185,15 +10245,17 @@
         <v>77</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="M75" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>77</v>
@@ -10242,13 +10304,13 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>77</v>
@@ -10260,7 +10322,7 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
@@ -10271,7 +10333,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10294,15 +10356,17 @@
         <v>77</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>178</v>
+        <v>254</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M76" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>77</v>
@@ -10327,13 +10391,13 @@
         <v>77</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>435</v>
+        <v>77</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>436</v>
+        <v>77</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>77</v>
@@ -10351,7 +10415,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>75</v>
@@ -10369,18 +10433,18 @@
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>438</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10403,13 +10467,13 @@
         <v>77</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>178</v>
+        <v>86</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>440</v>
+        <v>141</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>441</v>
+        <v>142</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10436,13 +10500,13 @@
         <v>77</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>276</v>
+        <v>77</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>442</v>
+        <v>77</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>443</v>
+        <v>77</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>77</v>
@@ -10460,7 +10524,7 @@
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>439</v>
+        <v>143</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>75</v>
@@ -10472,28 +10536,28 @@
         <v>77</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>444</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10512,20 +10576,18 @@
         <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>446</v>
+        <v>186</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>447</v>
+        <v>187</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>449</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>77</v>
       </c>
@@ -10549,13 +10611,13 @@
         <v>77</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>276</v>
+        <v>77</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>450</v>
+        <v>77</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>451</v>
+        <v>77</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>77</v>
@@ -10573,7 +10635,7 @@
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>445</v>
+        <v>147</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>75</v>
@@ -10585,28 +10647,28 @@
         <v>77</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>452</v>
+        <v>144</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>453</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10619,22 +10681,26 @@
         <v>77</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>455</v>
+        <v>262</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="O79" t="s" s="2">
         <v>77</v>
       </c>
@@ -10658,13 +10724,13 @@
         <v>77</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>457</v>
+        <v>77</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>458</v>
+        <v>77</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>77</v>
@@ -10682,7 +10748,7 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>454</v>
+        <v>264</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>75</v>
@@ -10694,24 +10760,24 @@
         <v>77</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>459</v>
+        <v>98</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>460</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10722,7 +10788,7 @@
         <v>75</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>77</v>
@@ -10734,13 +10800,13 @@
         <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10767,13 +10833,13 @@
         <v>77</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>464</v>
+        <v>77</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>465</v>
+        <v>77</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>77</v>
@@ -10791,13 +10857,13 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>77</v>
@@ -10809,18 +10875,18 @@
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>466</v>
+        <v>181</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>467</v>
+        <v>448</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10843,13 +10909,13 @@
         <v>77</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>428</v>
+        <v>450</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10900,7 +10966,7 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>75</v>
@@ -10918,18 +10984,18 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>472</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10952,13 +11018,13 @@
         <v>77</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>474</v>
+        <v>455</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -10985,13 +11051,13 @@
         <v>77</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>276</v>
+        <v>110</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>77</v>
@@ -11009,7 +11075,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>75</v>
@@ -11027,18 +11093,18 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>479</v>
+        <v>460</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11049,7 +11115,7 @@
         <v>75</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>77</v>
@@ -11061,17 +11127,15 @@
         <v>77</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>235</v>
+        <v>155</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>483</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>77</v>
@@ -11096,13 +11160,13 @@
         <v>77</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>77</v>
+        <v>295</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>77</v>
+        <v>464</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>77</v>
+        <v>465</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>77</v>
@@ -11120,13 +11184,13 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>77</v>
@@ -11138,18 +11202,18 @@
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>484</v>
+        <v>144</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>77</v>
+        <v>466</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11160,7 +11224,7 @@
         <v>75</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>77</v>
@@ -11172,16 +11236,20 @@
         <v>77</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>158</v>
+        <v>468</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
+        <v>469</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="O84" t="s" s="2">
         <v>77</v>
       </c>
@@ -11205,13 +11273,13 @@
         <v>77</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>77</v>
+        <v>295</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>77</v>
+        <v>472</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>77</v>
+        <v>473</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>77</v>
@@ -11229,40 +11297,40 @@
         <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>160</v>
+        <v>467</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>161</v>
+        <v>474</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>77</v>
+        <v>475</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11281,17 +11349,15 @@
         <v>77</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>163</v>
+        <v>477</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>77</v>
@@ -11316,13 +11382,13 @@
         <v>77</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>77</v>
+        <v>479</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>77</v>
+        <v>480</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>77</v>
@@ -11340,7 +11406,7 @@
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>166</v>
+        <v>476</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>75</v>
@@ -11352,28 +11418,28 @@
         <v>77</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>161</v>
+        <v>481</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>77</v>
+        <v>482</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>242</v>
+        <v>77</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -11386,26 +11452,22 @@
         <v>77</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>243</v>
+        <v>484</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>77</v>
       </c>
@@ -11429,13 +11491,13 @@
         <v>77</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>77</v>
+        <v>486</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>77</v>
+        <v>487</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>77</v>
@@ -11453,7 +11515,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>245</v>
+        <v>483</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>75</v>
@@ -11465,24 +11527,24 @@
         <v>77</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>98</v>
+        <v>488</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>77</v>
+        <v>489</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11490,7 +11552,7 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F87" t="s" s="2">
         <v>84</v>
@@ -11505,13 +11567,13 @@
         <v>77</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>489</v>
+        <v>450</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11562,10 +11624,10 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>84</v>
@@ -11577,13 +11639,13 @@
         <v>97</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>492</v>
+        <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>346</v>
+        <v>493</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>493</v>
+        <v>77</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>494</v>
@@ -11614,7 +11676,7 @@
         <v>77</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="K88" t="s" s="2">
         <v>496</v>
@@ -11622,9 +11684,7 @@
       <c r="L88" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="M88" t="s" s="2">
-        <v>498</v>
-      </c>
+      <c r="M88" s="2"/>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>77</v>
@@ -11649,13 +11709,13 @@
         <v>77</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>172</v>
+        <v>295</v>
       </c>
       <c r="X88" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="Y88" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>77</v>
@@ -11691,13 +11751,13 @@
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM88" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>77</v>
       </c>
     </row>
     <row r="89">
@@ -11713,7 +11773,7 @@
         <v>75</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>77</v>
@@ -11725,7 +11785,7 @@
         <v>77</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>178</v>
+        <v>254</v>
       </c>
       <c r="K89" t="s" s="2">
         <v>503</v>
@@ -11760,13 +11820,13 @@
         <v>77</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>276</v>
+        <v>77</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>506</v>
+        <v>77</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>507</v>
+        <v>77</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>77</v>
@@ -11790,7 +11850,7 @@
         <v>75</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>77</v>
@@ -11802,7 +11862,7 @@
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>77</v>
+        <v>506</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
@@ -11813,7 +11873,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11836,13 +11896,13 @@
         <v>77</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>205</v>
+        <v>86</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>509</v>
+        <v>141</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>510</v>
+        <v>142</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11893,7 +11953,7 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>508</v>
+        <v>143</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>75</v>
@@ -11905,13 +11965,13 @@
         <v>77</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>339</v>
+        <v>144</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>77</v>
@@ -11922,18 +11982,18 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>77</v>
@@ -11945,15 +12005,17 @@
         <v>77</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>212</v>
+        <v>130</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>512</v>
+        <v>186</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="M91" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>77</v>
@@ -12002,70 +12064,72 @@
         <v>77</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>511</v>
+        <v>147</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>345</v>
+        <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>514</v>
+        <v>144</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>515</v>
+        <v>77</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>517</v>
+        <v>130</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>518</v>
+        <v>262</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>519</v>
+        <v>263</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="O92" t="s" s="2">
         <v>77</v>
       </c>
@@ -12113,30 +12177,690 @@
         <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AM93" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="AF92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI92" t="s" s="2">
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI94" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ92" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM92" t="s" s="2">
+      <c r="AJ94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM98" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-cdm-encounter.xlsx
+++ b/StructureDefinition-cdm-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T20:48:10+00:00</t>
+    <t>2022-09-01T21:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-encounter.xlsx
+++ b/StructureDefinition-cdm-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:20:10+00:00</t>
+    <t>2022-09-01T21:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-encounter.xlsx
+++ b/StructureDefinition-cdm-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:41:49+00:00</t>
+    <t>2022-09-01T22:10:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-encounter.xlsx
+++ b/StructureDefinition-cdm-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T22:10:22+00:00</t>
+    <t>2022-09-06T15:46:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-encounter.xlsx
+++ b/StructureDefinition-cdm-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T15:46:40+00:00</t>
+    <t>2022-09-06T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-encounter.xlsx
+++ b/StructureDefinition-cdm-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T17:14:02+00:00</t>
+    <t>2022-09-06T21:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-encounter.xlsx
+++ b/StructureDefinition-cdm-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:02:26+00:00</t>
+    <t>2022-09-06T21:25:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-encounter.xlsx
+++ b/StructureDefinition-cdm-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:25:20+00:00</t>
+    <t>2022-09-07T15:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-encounter.xlsx
+++ b/StructureDefinition-cdm-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T15:39:45+00:00</t>
+    <t>2022-09-07T17:21:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-encounter.xlsx
+++ b/StructureDefinition-cdm-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:21:01+00:00</t>
+    <t>2022-09-07T17:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-encounter.xlsx
+++ b/StructureDefinition-cdm-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:59:32+00:00</t>
+    <t>2022-09-07T18:17:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-encounter.xlsx
+++ b/StructureDefinition-cdm-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:17:14+00:00</t>
+    <t>2022-09-07T18:58:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-encounter.xlsx
+++ b/StructureDefinition-cdm-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:58:38+00:00</t>
+    <t>2022-09-07T20:17:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-encounter.xlsx
+++ b/StructureDefinition-cdm-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:17:32+00:00</t>
+    <t>2022-09-07T20:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-encounter.xlsx
+++ b/StructureDefinition-cdm-encounter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3433" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3433" uniqueCount="546">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:41:11+00:00</t>
+    <t>2022-09-08T16:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -275,183 +275,187 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Encounter.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
+</t>
+  </si>
+  <si>
+    <t>Metadata about a resource</t>
+  </si>
+  <si>
+    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Encounter.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Encounter.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Encounter.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Encounter.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>Encounter.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>claimType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/claim-type}
+</t>
+  </si>
+  <si>
+    <t>Type of claim determined from the clinical source and not adjudicated claim</t>
+  </si>
+  <si>
+    <t>Encounter.extension.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Encounter.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
-</t>
-  </si>
-  <si>
-    <t>Metadata about a resource</t>
-  </si>
-  <si>
-    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Encounter.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Encounter.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Encounter.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Encounter.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>Encounter.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>claimType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/claim-type}
-</t>
-  </si>
-  <si>
-    <t>Type of claim determined from the clinical source and not adjudicated claim</t>
-  </si>
-  <si>
-    <t>Encounter.extension.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -3185,13 +3189,13 @@
         <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3242,7 +3246,7 @@
         <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>75</v>
@@ -3260,7 +3264,7 @@
         <v>77</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>77</v>
@@ -3271,7 +3275,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3342,7 +3346,7 @@
         <v>133</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>77</v>
@@ -3351,7 +3355,7 @@
         <v>134</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
@@ -3380,7 +3384,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3406,13 +3410,13 @@
         <v>100</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3420,7 +3424,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>77</v>
@@ -3462,7 +3466,7 @@
         <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>84</v>
@@ -3491,7 +3495,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3514,13 +3518,13 @@
         <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3559,17 +3563,17 @@
         <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
@@ -3598,10 +3602,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>77</v>
@@ -3623,13 +3627,13 @@
         <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3656,11 +3660,11 @@
         <v>77</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>77</v>
@@ -3678,7 +3682,7 @@
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
@@ -3710,7 +3714,7 @@
         <v>129</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>77</v>
@@ -3732,13 +3736,13 @@
         <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3818,11 +3822,11 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3844,16 +3848,16 @@
         <v>130</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>77</v>
@@ -3902,7 +3906,7 @@
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -3931,7 +3935,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3954,13 +3958,13 @@
         <v>85</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3999,10 +4003,10 @@
         <v>77</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AC18" t="s" s="2">
         <v>77</v>
@@ -4011,7 +4015,7 @@
         <v>134</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -4026,21 +4030,21 @@
         <v>97</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4063,13 +4067,13 @@
         <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4120,7 +4124,7 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -4138,7 +4142,7 @@
         <v>77</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>77</v>
@@ -4149,11 +4153,11 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4175,13 +4179,13 @@
         <v>130</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4222,7 +4226,7 @@
         <v>133</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>77</v>
@@ -4231,7 +4235,7 @@
         <v>134</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -4249,7 +4253,7 @@
         <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
@@ -4260,7 +4264,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4286,16 +4290,16 @@
         <v>106</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>77</v>
@@ -4320,13 +4324,13 @@
         <v>77</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>77</v>
@@ -4344,7 +4348,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -4362,7 +4366,7 @@
         <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>77</v>
@@ -4373,7 +4377,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4396,19 +4400,19 @@
         <v>85</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>77</v>
@@ -4433,11 +4437,11 @@
         <v>77</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>77</v>
@@ -4455,7 +4459,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -4473,18 +4477,18 @@
         <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4510,16 +4514,16 @@
         <v>100</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -4532,7 +4536,7 @@
         <v>77</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>77</v>
@@ -4568,7 +4572,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -4586,18 +4590,18 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4620,16 +4624,16 @@
         <v>85</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4643,7 +4647,7 @@
         <v>77</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>77</v>
@@ -4679,7 +4683,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -4697,18 +4701,18 @@
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4731,13 +4735,13 @@
         <v>85</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4788,7 +4792,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -4806,18 +4810,18 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4840,16 +4844,16 @@
         <v>85</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4899,7 +4903,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4917,21 +4921,21 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>77</v>
@@ -4953,13 +4957,13 @@
         <v>85</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -5010,7 +5014,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -5025,21 +5029,21 @@
         <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5062,13 +5066,13 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -5119,7 +5123,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -5137,7 +5141,7 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5148,11 +5152,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5174,13 +5178,13 @@
         <v>130</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5221,7 +5225,7 @@
         <v>133</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>77</v>
@@ -5230,7 +5234,7 @@
         <v>134</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -5248,7 +5252,7 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
@@ -5259,7 +5263,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5285,16 +5289,16 @@
         <v>106</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -5304,7 +5308,7 @@
         <v>77</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>77</v>
@@ -5319,13 +5323,13 @@
         <v>77</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>77</v>
@@ -5343,7 +5347,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -5361,7 +5365,7 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
@@ -5372,7 +5376,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5395,19 +5399,19 @@
         <v>85</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5417,7 +5421,7 @@
         <v>77</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>77</v>
@@ -5432,13 +5436,13 @@
         <v>77</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>77</v>
@@ -5456,7 +5460,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -5474,18 +5478,18 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5511,16 +5515,16 @@
         <v>100</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5533,7 +5537,7 @@
         <v>77</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>77</v>
@@ -5569,7 +5573,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -5587,18 +5591,18 @@
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5621,16 +5625,16 @@
         <v>85</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5644,7 +5648,7 @@
         <v>77</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>77</v>
@@ -5680,7 +5684,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -5698,18 +5702,18 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5732,13 +5736,13 @@
         <v>85</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5789,7 +5793,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -5807,18 +5811,18 @@
         <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5841,16 +5845,16 @@
         <v>85</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5900,7 +5904,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5918,18 +5922,18 @@
         <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5955,13 +5959,13 @@
         <v>106</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5987,13 +5991,13 @@
         <v>77</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>77</v>
@@ -6011,7 +6015,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>84</v>
@@ -6026,21 +6030,21 @@
         <v>97</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6063,16 +6067,16 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6122,7 +6126,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -6140,7 +6144,7 @@
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -6151,7 +6155,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6174,13 +6178,13 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6231,7 +6235,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -6249,7 +6253,7 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -6260,11 +6264,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6286,13 +6290,13 @@
         <v>130</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6342,7 +6346,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -6360,7 +6364,7 @@
         <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -6371,11 +6375,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6397,16 +6401,16 @@
         <v>130</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>77</v>
@@ -6455,7 +6459,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -6484,7 +6488,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6510,10 +6514,10 @@
         <v>106</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6540,13 +6544,13 @@
         <v>77</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>77</v>
@@ -6564,7 +6568,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>84</v>
@@ -6582,7 +6586,7 @@
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6593,7 +6597,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6616,13 +6620,13 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6673,7 +6677,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>84</v>
@@ -6691,7 +6695,7 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6702,7 +6706,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6725,13 +6729,13 @@
         <v>85</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6758,11 +6762,11 @@
         <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>77</v>
@@ -6780,7 +6784,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>84</v>
@@ -6798,18 +6802,18 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6832,13 +6836,13 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6889,7 +6893,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -6907,7 +6911,7 @@
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -6918,7 +6922,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6941,13 +6945,13 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6998,7 +7002,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -7016,7 +7020,7 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -7027,11 +7031,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7053,13 +7057,13 @@
         <v>130</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7109,7 +7113,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -7127,7 +7131,7 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7138,11 +7142,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7164,16 +7168,16 @@
         <v>130</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>77</v>
@@ -7222,7 +7226,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -7251,7 +7255,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7274,13 +7278,13 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7307,13 +7311,13 @@
         <v>77</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>77</v>
@@ -7331,7 +7335,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>84</v>
@@ -7349,7 +7353,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7360,7 +7364,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7383,13 +7387,13 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7440,7 +7444,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>84</v>
@@ -7458,7 +7462,7 @@
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7469,7 +7473,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7492,16 +7496,16 @@
         <v>85</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7527,13 +7531,13 @@
         <v>77</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>77</v>
@@ -7551,7 +7555,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
@@ -7566,21 +7570,21 @@
         <v>97</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7603,13 +7607,13 @@
         <v>85</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7636,13 +7640,13 @@
         <v>77</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>77</v>
@@ -7660,7 +7664,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -7675,21 +7679,21 @@
         <v>97</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7712,13 +7716,13 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7745,13 +7749,13 @@
         <v>77</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>77</v>
@@ -7769,7 +7773,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
@@ -7787,22 +7791,22 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7821,16 +7825,16 @@
         <v>85</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7880,7 +7884,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
@@ -7895,21 +7899,21 @@
         <v>97</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7932,13 +7936,13 @@
         <v>85</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7989,7 +7993,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -8004,25 +8008,25 @@
         <v>97</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8041,13 +8045,13 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8098,7 +8102,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
@@ -8113,10 +8117,10 @@
         <v>97</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8127,7 +8131,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8150,13 +8154,13 @@
         <v>85</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8207,7 +8211,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
@@ -8222,21 +8226,21 @@
         <v>97</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8259,13 +8263,13 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8316,7 +8320,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
@@ -8334,7 +8338,7 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8345,11 +8349,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8371,13 +8375,13 @@
         <v>130</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8427,7 +8431,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
@@ -8445,7 +8449,7 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8456,11 +8460,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8482,16 +8486,16 @@
         <v>130</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>77</v>
@@ -8540,7 +8544,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -8569,7 +8573,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8592,16 +8596,16 @@
         <v>85</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8627,13 +8631,13 @@
         <v>77</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>77</v>
@@ -8651,7 +8655,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -8666,21 +8670,21 @@
         <v>97</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8703,13 +8707,13 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8760,7 +8764,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
@@ -8778,18 +8782,18 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8812,13 +8816,13 @@
         <v>85</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8869,7 +8873,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
@@ -8884,21 +8888,21 @@
         <v>97</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8921,13 +8925,13 @@
         <v>85</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8978,7 +8982,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
@@ -8993,21 +8997,21 @@
         <v>97</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9030,16 +9034,16 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9089,7 +9093,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
@@ -9104,21 +9108,21 @@
         <v>97</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9141,16 +9145,16 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9200,7 +9204,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
@@ -9215,25 +9219,25 @@
         <v>97</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9252,16 +9256,16 @@
         <v>85</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9290,10 +9294,10 @@
         <v>110</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>77</v>
@@ -9311,7 +9315,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
@@ -9326,21 +9330,21 @@
         <v>97</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9363,16 +9367,16 @@
         <v>85</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9422,7 +9426,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
@@ -9440,7 +9444,7 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -9451,7 +9455,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9474,13 +9478,13 @@
         <v>85</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9531,7 +9535,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
@@ -9549,7 +9553,7 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -9560,7 +9564,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9583,13 +9587,13 @@
         <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9640,7 +9644,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
@@ -9658,7 +9662,7 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -9669,11 +9673,11 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9695,13 +9699,13 @@
         <v>130</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9751,7 +9755,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>75</v>
@@ -9769,7 +9773,7 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -9780,11 +9784,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9806,16 +9810,16 @@
         <v>130</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>77</v>
@@ -9864,7 +9868,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
@@ -9893,11 +9897,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9916,16 +9920,16 @@
         <v>85</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9975,7 +9979,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>84</v>
@@ -9990,21 +9994,21 @@
         <v>97</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10027,13 +10031,13 @@
         <v>77</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10063,10 +10067,10 @@
         <v>110</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>77</v>
@@ -10084,7 +10088,7 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>75</v>
@@ -10102,7 +10106,7 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -10113,7 +10117,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10136,13 +10140,13 @@
         <v>77</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10193,7 +10197,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>75</v>
@@ -10211,7 +10215,7 @@
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
@@ -10222,7 +10226,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10245,16 +10249,16 @@
         <v>77</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10304,7 +10308,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>75</v>
@@ -10322,7 +10326,7 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
@@ -10333,7 +10337,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10356,16 +10360,16 @@
         <v>77</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10415,7 +10419,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>75</v>
@@ -10433,7 +10437,7 @@
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
@@ -10444,7 +10448,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10467,13 +10471,13 @@
         <v>77</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10524,7 +10528,7 @@
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>75</v>
@@ -10542,7 +10546,7 @@
         <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
@@ -10553,11 +10557,11 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10579,13 +10583,13 @@
         <v>130</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -10635,7 +10639,7 @@
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>75</v>
@@ -10653,7 +10657,7 @@
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
@@ -10664,11 +10668,11 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10690,16 +10694,16 @@
         <v>130</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>77</v>
@@ -10748,7 +10752,7 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>75</v>
@@ -10777,7 +10781,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10800,13 +10804,13 @@
         <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10857,7 +10861,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>75</v>
@@ -10875,18 +10879,18 @@
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10909,13 +10913,13 @@
         <v>77</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10966,7 +10970,7 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>75</v>
@@ -10984,7 +10988,7 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
@@ -10995,7 +10999,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11018,13 +11022,13 @@
         <v>77</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11054,10 +11058,10 @@
         <v>110</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>77</v>
@@ -11075,7 +11079,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>75</v>
@@ -11093,18 +11097,18 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11127,13 +11131,13 @@
         <v>77</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11160,13 +11164,13 @@
         <v>77</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>77</v>
@@ -11184,7 +11188,7 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>75</v>
@@ -11202,18 +11206,18 @@
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11236,19 +11240,19 @@
         <v>77</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>77</v>
@@ -11273,13 +11277,13 @@
         <v>77</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>77</v>
@@ -11297,7 +11301,7 @@
         <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>75</v>
@@ -11315,18 +11319,18 @@
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11349,13 +11353,13 @@
         <v>77</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -11385,10 +11389,10 @@
         <v>110</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>77</v>
@@ -11406,7 +11410,7 @@
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>75</v>
@@ -11424,18 +11428,18 @@
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11458,13 +11462,13 @@
         <v>77</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -11494,10 +11498,10 @@
         <v>110</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>77</v>
@@ -11515,7 +11519,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>75</v>
@@ -11533,18 +11537,18 @@
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11567,13 +11571,13 @@
         <v>77</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11624,7 +11628,7 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>75</v>
@@ -11642,18 +11646,18 @@
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11676,13 +11680,13 @@
         <v>77</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -11709,13 +11713,13 @@
         <v>77</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>77</v>
@@ -11733,7 +11737,7 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>75</v>
@@ -11751,18 +11755,18 @@
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11785,16 +11789,16 @@
         <v>77</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -11844,7 +11848,7 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>75</v>
@@ -11862,7 +11866,7 @@
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
@@ -11873,7 +11877,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11896,13 +11900,13 @@
         <v>77</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11953,7 +11957,7 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>75</v>
@@ -11971,7 +11975,7 @@
         <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>77</v>
@@ -11982,11 +11986,11 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -12008,13 +12012,13 @@
         <v>130</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12064,7 +12068,7 @@
         <v>77</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>75</v>
@@ -12082,7 +12086,7 @@
         <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>77</v>
@@ -12093,11 +12097,11 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -12119,16 +12123,16 @@
         <v>130</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>77</v>
@@ -12177,7 +12181,7 @@
         <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>75</v>
@@ -12206,7 +12210,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12229,13 +12233,13 @@
         <v>77</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12286,7 +12290,7 @@
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>84</v>
@@ -12301,21 +12305,21 @@
         <v>97</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12341,13 +12345,13 @@
         <v>106</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -12373,13 +12377,13 @@
         <v>77</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>77</v>
@@ -12397,7 +12401,7 @@
         <v>77</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>75</v>
@@ -12415,7 +12419,7 @@
         <v>77</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>77</v>
@@ -12426,7 +12430,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12449,16 +12453,16 @@
         <v>77</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -12484,13 +12488,13 @@
         <v>77</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>77</v>
@@ -12508,7 +12512,7 @@
         <v>77</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>75</v>
@@ -12537,7 +12541,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12560,13 +12564,13 @@
         <v>77</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -12617,7 +12621,7 @@
         <v>77</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>75</v>
@@ -12635,7 +12639,7 @@
         <v>77</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>77</v>
@@ -12646,7 +12650,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12669,13 +12673,13 @@
         <v>77</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -12726,7 +12730,7 @@
         <v>77</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>75</v>
@@ -12741,21 +12745,21 @@
         <v>97</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12778,16 +12782,16 @@
         <v>77</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -12837,7 +12841,7 @@
         <v>77</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>75</v>
@@ -12852,10 +12856,10 @@
         <v>97</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>77</v>

--- a/StructureDefinition-cdm-encounter.xlsx
+++ b/StructureDefinition-cdm-encounter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3433" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3433" uniqueCount="545">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/cdm-encounter</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/cdm-encounter</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>7.0.0</t>
+    <t>8.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:11:15+00:00</t>
+    <t>2022-11-10T16:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Alvearie Team</t>
+    <t>LinuxForHealth Team</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Health Data Connect Common Data Model definition of what fields we currently define for an encounter</t>
+    <t>LinuxForHealth Common Data Model definition of what fields we currently define for an encounter</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -256,10 +256,6 @@
     <t>An interaction between a patient and healthcare provider(s) for the purpose of providing healthcare service(s) or assessing the health status of a patient.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -294,7 +290,7 @@
     <t>Encounter.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
+    <t xml:space="preserve">Meta {http://linuxforhealth.org/fhir/cdm/StructureDefinition/process-meta}
 </t>
   </si>
   <si>
@@ -444,7 +440,7 @@
     <t>claimType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/claim-type}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/claim-type}
 </t>
   </si>
   <si>
@@ -491,7 +487,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/claim-type</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/claim-type</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -526,13 +522,13 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/ValueSet/claim-type</t>
+    <t>http://linuxforhealth.org/fhir/cdm/ValueSet/claim-type</t>
   </si>
   <si>
     <t>insured</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/insured}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/insured}
 </t>
   </si>
   <si>
@@ -651,7 +647,7 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/ValueSet/identifier-type</t>
+    <t>http://linuxforhealth.org/fhir/cdm/ValueSet/identifier-type</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -766,7 +762,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://ibm.com/fhir/cdm/CodeSystem/identifier-type"/&gt;
+    &lt;system value="http://linuxforhealth.org/fhir/cdm/CodeSystem/identifier-type"/&gt;
     &lt;code value="SSRI"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -872,7 +868,7 @@
     <t>Concepts representing classification of patient encounter such as ambulatory (outpatient), inpatient, emergency, home health or others due to local variations.</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/ValueSet/encounter-class</t>
+    <t>http://linuxforhealth.org/fhir/cdm/ValueSet/encounter-class</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=LIST].code</t>
@@ -1265,7 +1261,7 @@
     <t>Encounter.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Procedure|Observation|ImmunizationRecommendation) {http://ibm.com/fhir/cdm/StructureDefinition/reference-with-sequence}
+    <t xml:space="preserve">Reference(Condition|Procedure|Observation|ImmunizationRecommendation) {http://linuxforhealth.org/fhir/cdm/StructureDefinition/reference-with-sequence}
 </t>
   </si>
   <si>
@@ -2267,13 +2263,13 @@
         <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>77</v>
@@ -2284,7 +2280,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2295,28 +2291,28 @@
         <v>75</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2366,13 +2362,13 @@
         <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>77</v>
@@ -2395,7 +2391,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2406,7 +2402,7 @@
         <v>75</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>77</v>
@@ -2418,13 +2414,13 @@
         <v>77</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2475,25 +2471,25 @@
         <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AF4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH4" t="s" s="2">
+      <c r="AI4" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AI4" t="s" s="2">
+      <c r="AJ4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK4" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK4" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>77</v>
@@ -2504,7 +2500,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2515,28 +2511,28 @@
         <v>75</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2586,19 +2582,19 @@
         <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>77</v>
@@ -2615,7 +2611,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2626,7 +2622,7 @@
         <v>75</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>77</v>
@@ -2638,16 +2634,16 @@
         <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2673,43 +2669,43 @@
         <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>113</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>77</v>
@@ -2726,18 +2722,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>77</v>
@@ -2749,16 +2745,16 @@
         <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2808,25 +2804,25 @@
         <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>77</v>
@@ -2837,11 +2833,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2860,16 +2856,16 @@
         <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2919,7 +2915,7 @@
         <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>75</v>
@@ -2937,7 +2933,7 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>77</v>
@@ -2948,7 +2944,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2971,13 +2967,13 @@
         <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -3016,17 +3012,17 @@
         <v>77</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>75</v>
@@ -3038,7 +3034,7 @@
         <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>77</v>
@@ -3055,10 +3051,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>77</v>
@@ -3068,7 +3064,7 @@
         <v>75</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>77</v>
@@ -3080,13 +3076,13 @@
         <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>139</v>
-      </c>
       <c r="L10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -3137,7 +3133,7 @@
         <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
@@ -3146,10 +3142,10 @@
         <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>77</v>
@@ -3166,7 +3162,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3177,7 +3173,7 @@
         <v>75</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>77</v>
@@ -3189,13 +3185,13 @@
         <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3246,25 +3242,25 @@
         <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>77</v>
@@ -3275,7 +3271,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3298,13 +3294,13 @@
         <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3343,19 +3339,19 @@
         <v>77</v>
       </c>
       <c r="AA12" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD12" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="AB12" t="s" s="2">
+      <c r="AE12" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
@@ -3367,7 +3363,7 @@
         <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>77</v>
@@ -3384,7 +3380,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3392,10 +3388,10 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>77</v>
@@ -3407,16 +3403,16 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3424,55 +3420,55 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="R13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE13" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="R13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>154</v>
-      </c>
       <c r="AF13" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>77</v>
@@ -3484,7 +3480,7 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>77</v>
@@ -3495,7 +3491,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3506,7 +3502,7 @@
         <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>77</v>
@@ -3518,13 +3514,13 @@
         <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3563,35 +3559,35 @@
         <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD14" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AE14" t="s" s="2">
-        <v>161</v>
-      </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>77</v>
@@ -3602,10 +3598,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>77</v>
@@ -3615,7 +3611,7 @@
         <v>75</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>77</v>
@@ -3627,13 +3623,13 @@
         <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3660,11 +3656,11 @@
         <v>77</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>77</v>
@@ -3682,25 +3678,25 @@
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>77</v>
@@ -3711,10 +3707,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>77</v>
@@ -3736,13 +3732,13 @@
         <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="K16" t="s" s="2">
-        <v>167</v>
-      </c>
       <c r="L16" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3793,7 +3789,7 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
@@ -3802,10 +3798,10 @@
         <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>77</v>
@@ -3822,11 +3818,11 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3839,25 +3835,25 @@
         <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>77</v>
@@ -3906,7 +3902,7 @@
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -3918,13 +3914,13 @@
         <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>77</v>
@@ -3935,7 +3931,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3943,7 +3939,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>76</v>
@@ -3955,16 +3951,16 @@
         <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4003,19 +3999,19 @@
         <v>77</v>
       </c>
       <c r="AA18" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AB18" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AB18" t="s" s="2">
-        <v>180</v>
-      </c>
       <c r="AC18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -4027,24 +4023,24 @@
         <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>184</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4055,7 +4051,7 @@
         <v>75</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>77</v>
@@ -4067,13 +4063,13 @@
         <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4124,25 +4120,25 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>77</v>
@@ -4153,11 +4149,11 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4176,16 +4172,16 @@
         <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>188</v>
-      </c>
       <c r="M20" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4223,19 +4219,19 @@
         <v>77</v>
       </c>
       <c r="AA20" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD20" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="AB20" t="s" s="2">
+      <c r="AE20" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -4247,13 +4243,13 @@
         <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
@@ -4264,7 +4260,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4275,31 +4271,31 @@
         <v>75</v>
       </c>
       <c r="F21" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H21" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="I21" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>77</v>
@@ -4324,60 +4320,60 @@
         <v>77</v>
       </c>
       <c r="W21" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="X21" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="X21" t="s" s="2">
+      <c r="Y21" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Y21" t="s" s="2">
+      <c r="Z21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="Z21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE21" t="s" s="2">
+      <c r="AF21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AF21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4388,31 +4384,31 @@
         <v>75</v>
       </c>
       <c r="F22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J22" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>77</v>
@@ -4437,58 +4433,58 @@
         <v>77</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE22" t="s" s="2">
+      <c r="AF22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>206</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4496,34 +4492,34 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F23" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J23" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -4536,72 +4532,72 @@
         <v>77</v>
       </c>
       <c r="S23" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="T23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE23" t="s" s="2">
+      <c r="AF23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AF23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AL23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>215</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4609,31 +4605,31 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F24" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4647,72 +4643,72 @@
         <v>77</v>
       </c>
       <c r="S24" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="T24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE24" t="s" s="2">
+      <c r="AF24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AF24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>223</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4723,25 +4719,25 @@
         <v>75</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J25" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4792,36 +4788,36 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AF25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>230</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4832,28 +4828,28 @@
         <v>75</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J26" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4903,39 +4899,39 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AF26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>238</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>77</v>
@@ -4945,25 +4941,25 @@
         <v>75</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J27" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -5014,7 +5010,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -5026,24 +5022,24 @@
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>184</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5054,7 +5050,7 @@
         <v>75</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>77</v>
@@ -5066,13 +5062,13 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -5123,25 +5119,25 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5152,11 +5148,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5175,16 +5171,16 @@
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>188</v>
-      </c>
       <c r="M29" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5222,19 +5218,19 @@
         <v>77</v>
       </c>
       <c r="AA29" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD29" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="AB29" t="s" s="2">
+      <c r="AE29" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -5246,13 +5242,13 @@
         <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
@@ -5263,7 +5259,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5274,31 +5270,31 @@
         <v>75</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H30" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="I30" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -5308,7 +5304,7 @@
         <v>77</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>77</v>
@@ -5323,60 +5319,60 @@
         <v>77</v>
       </c>
       <c r="W30" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="X30" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="X30" t="s" s="2">
+      <c r="Y30" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Y30" t="s" s="2">
+      <c r="Z30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE30" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="Z30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE30" t="s" s="2">
+      <c r="AF30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AF30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5384,34 +5380,34 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F31" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J31" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5421,29 +5417,29 @@
         <v>77</v>
       </c>
       <c r="R31" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="X31" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="S31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="X31" t="s" s="2">
+      <c r="Y31" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="Y31" t="s" s="2">
-        <v>243</v>
-      </c>
       <c r="Z31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5460,36 +5456,36 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>206</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5500,31 +5496,31 @@
         <v>75</v>
       </c>
       <c r="F32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J32" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5537,72 +5533,72 @@
         <v>77</v>
       </c>
       <c r="S32" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="T32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE32" t="s" s="2">
+      <c r="AF32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AF32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>215</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5613,28 +5609,28 @@
         <v>75</v>
       </c>
       <c r="F33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J33" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5648,72 +5644,72 @@
         <v>77</v>
       </c>
       <c r="S33" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE33" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="T33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE33" t="s" s="2">
+      <c r="AF33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AF33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>223</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5724,25 +5720,25 @@
         <v>75</v>
       </c>
       <c r="F34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J34" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5793,36 +5789,36 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AF34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>230</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5833,28 +5829,28 @@
         <v>75</v>
       </c>
       <c r="F35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J35" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5904,36 +5900,36 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AF35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AL35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>238</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5941,31 +5937,31 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H36" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="I36" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J36" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5991,60 +5987,60 @@
         <v>77</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="Y36" t="s" s="2">
+      <c r="Z36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="Z36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
+      <c r="AK36" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>253</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6067,16 +6063,16 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6126,7 +6122,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -6138,13 +6134,13 @@
         <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -6155,7 +6151,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6166,7 +6162,7 @@
         <v>75</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>77</v>
@@ -6178,13 +6174,13 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6235,25 +6231,25 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -6264,11 +6260,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6287,16 +6283,16 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L39" t="s" s="2">
-        <v>188</v>
-      </c>
       <c r="M39" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6346,7 +6342,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -6358,13 +6354,13 @@
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -6375,11 +6371,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6392,25 +6388,25 @@
         <v>77</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>264</v>
-      </c>
       <c r="M40" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>77</v>
@@ -6459,7 +6455,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -6471,13 +6467,13 @@
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6488,7 +6484,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6496,10 +6492,10 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>77</v>
@@ -6511,13 +6507,13 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6544,14 +6540,14 @@
         <v>77</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="X41" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="Y41" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="Y41" t="s" s="2">
-        <v>249</v>
-      </c>
       <c r="Z41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6568,25 +6564,25 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6597,7 +6593,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6605,10 +6601,10 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>77</v>
@@ -6620,13 +6616,13 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6677,25 +6673,25 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6706,7 +6702,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6714,28 +6710,28 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I43" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F43" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J43" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6762,58 +6758,58 @@
         <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK43" t="s" s="2">
+      <c r="AL43" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>277</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6836,13 +6832,13 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6893,7 +6889,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -6905,13 +6901,13 @@
         <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -6922,7 +6918,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6933,7 +6929,7 @@
         <v>75</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>77</v>
@@ -6945,13 +6941,13 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7002,25 +6998,25 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -7031,11 +7027,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7054,16 +7050,16 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L46" t="s" s="2">
-        <v>188</v>
-      </c>
       <c r="M46" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7113,7 +7109,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -7125,13 +7121,13 @@
         <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7142,11 +7138,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7159,25 +7155,25 @@
         <v>77</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="L47" t="s" s="2">
-        <v>264</v>
-      </c>
       <c r="M47" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>77</v>
@@ -7226,7 +7222,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -7238,13 +7234,13 @@
         <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7255,7 +7251,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7263,10 +7259,10 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>77</v>
@@ -7278,13 +7274,13 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7311,14 +7307,14 @@
         <v>77</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="Y48" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="Y48" t="s" s="2">
-        <v>288</v>
-      </c>
       <c r="Z48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7335,25 +7331,25 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7364,7 +7360,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7372,10 +7368,10 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>77</v>
@@ -7387,13 +7383,13 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7444,25 +7440,25 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7473,7 +7469,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7493,19 +7489,19 @@
         <v>77</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7531,14 +7527,14 @@
         <v>77</v>
       </c>
       <c r="W50" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="X50" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="X50" t="s" s="2">
+      <c r="Y50" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="Y50" t="s" s="2">
-        <v>298</v>
-      </c>
       <c r="Z50" t="s" s="2">
         <v>77</v>
       </c>
@@ -7555,7 +7551,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
@@ -7567,24 +7563,24 @@
         <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ50" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AK50" t="s" s="2">
+      <c r="AL50" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>301</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7595,25 +7591,25 @@
         <v>75</v>
       </c>
       <c r="F51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I51" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J51" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7640,60 +7636,60 @@
         <v>77</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="Y51" t="s" s="2">
+      <c r="Z51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>307</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7704,7 +7700,7 @@
         <v>75</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>77</v>
@@ -7716,13 +7712,13 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7749,92 +7745,92 @@
         <v>77</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="X52" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="Y52" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="Y52" t="s" s="2">
+      <c r="Z52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK52" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="Z52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK52" t="s" s="2">
+      <c r="AL52" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>314</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I53" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J53" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7884,36 +7880,36 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AK53" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AK53" t="s" s="2">
+      <c r="AL53" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>324</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7933,16 +7929,16 @@
         <v>77</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7993,7 +7989,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -8005,28 +8001,28 @@
         <v>77</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ54" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AK54" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>331</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8045,13 +8041,13 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8102,7 +8098,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
@@ -8114,13 +8110,13 @@
         <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8131,7 +8127,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8151,16 +8147,16 @@
         <v>77</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8211,7 +8207,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
@@ -8223,24 +8219,24 @@
         <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ56" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AK56" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AK56" t="s" s="2">
+      <c r="AL56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>344</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8251,7 +8247,7 @@
         <v>75</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>77</v>
@@ -8263,13 +8259,13 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8320,25 +8316,25 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8349,11 +8345,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8372,16 +8368,16 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>188</v>
-      </c>
       <c r="M58" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8431,7 +8427,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
@@ -8443,13 +8439,13 @@
         <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8460,11 +8456,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8477,25 +8473,25 @@
         <v>77</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="L59" t="s" s="2">
-        <v>264</v>
-      </c>
       <c r="M59" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>77</v>
@@ -8544,7 +8540,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -8556,13 +8552,13 @@
         <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8573,7 +8569,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8593,19 +8589,19 @@
         <v>77</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8631,13 +8627,13 @@
         <v>77</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>77</v>
@@ -8655,7 +8651,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -8667,24 +8663,24 @@
         <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AK60" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AK60" t="s" s="2">
+      <c r="AL60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>355</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8695,7 +8691,7 @@
         <v>75</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>77</v>
@@ -8707,13 +8703,13 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8764,36 +8760,36 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>360</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8804,25 +8800,25 @@
         <v>75</v>
       </c>
       <c r="F62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I62" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J62" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8873,36 +8869,36 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AK62" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AK62" t="s" s="2">
+      <c r="AL62" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AL62" t="s" s="2">
+      <c r="AM62" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>368</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8922,16 +8918,16 @@
         <v>77</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8982,7 +8978,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
@@ -8994,24 +8990,24 @@
         <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>374</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9022,7 +9018,7 @@
         <v>75</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>77</v>
@@ -9034,16 +9030,16 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9093,36 +9089,36 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ64" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AK64" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AK64" t="s" s="2">
+      <c r="AL64" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AL64" t="s" s="2">
+      <c r="AM64" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>382</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9133,7 +9129,7 @@
         <v>75</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>77</v>
@@ -9145,16 +9141,16 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="K65" t="s" s="2">
+      <c r="L65" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9204,40 +9200,40 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>389</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9253,19 +9249,19 @@
         <v>77</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9291,14 +9287,14 @@
         <v>77</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X66" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="Y66" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="Y66" t="s" s="2">
-        <v>396</v>
-      </c>
       <c r="Z66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9315,7 +9311,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
@@ -9327,24 +9323,24 @@
         <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ66" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AK66" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="AK66" t="s" s="2">
+      <c r="AL66" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="AL66" t="s" s="2">
+      <c r="AM66" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>400</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9364,19 +9360,19 @@
         <v>77</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="L67" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9426,7 +9422,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
@@ -9438,13 +9434,13 @@
         <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -9455,7 +9451,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9475,16 +9471,16 @@
         <v>77</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9535,7 +9531,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
@@ -9547,13 +9543,13 @@
         <v>77</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -9564,7 +9560,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9575,7 +9571,7 @@
         <v>75</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>77</v>
@@ -9587,13 +9583,13 @@
         <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="K69" t="s" s="2">
+      <c r="L69" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9644,25 +9640,25 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK69" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -9673,11 +9669,11 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9696,16 +9692,16 @@
         <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L70" t="s" s="2">
-        <v>188</v>
-      </c>
       <c r="M70" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9755,7 +9751,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>75</v>
@@ -9767,13 +9763,13 @@
         <v>77</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -9784,11 +9780,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9801,25 +9797,25 @@
         <v>77</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="L71" t="s" s="2">
-        <v>264</v>
-      </c>
       <c r="M71" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="N71" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>77</v>
@@ -9868,7 +9864,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
@@ -9880,13 +9876,13 @@
         <v>77</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
@@ -9897,39 +9893,39 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I72" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F72" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J72" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="K72" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="K72" t="s" s="2">
+      <c r="L72" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="L72" t="s" s="2">
-        <v>418</v>
-      </c>
       <c r="M72" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9979,36 +9975,36 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ72" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AK72" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="AK72" t="s" s="2">
+      <c r="AL72" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>421</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10019,7 +10015,7 @@
         <v>75</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>77</v>
@@ -10031,13 +10027,13 @@
         <v>77</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10064,14 +10060,14 @@
         <v>77</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X73" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="Y73" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="Y73" t="s" s="2">
-        <v>426</v>
-      </c>
       <c r="Z73" t="s" s="2">
         <v>77</v>
       </c>
@@ -10088,25 +10084,25 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -10117,7 +10113,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10128,7 +10124,7 @@
         <v>75</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>77</v>
@@ -10140,13 +10136,13 @@
         <v>77</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10197,25 +10193,25 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
@@ -10226,7 +10222,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10249,16 +10245,16 @@
         <v>77</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="K75" t="s" s="2">
+      <c r="L75" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10308,7 +10304,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>75</v>
@@ -10320,13 +10316,13 @@
         <v>77</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
@@ -10337,7 +10333,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10348,7 +10344,7 @@
         <v>75</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>77</v>
@@ -10360,16 +10356,16 @@
         <v>77</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10419,25 +10415,25 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
@@ -10448,7 +10444,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10459,7 +10455,7 @@
         <v>75</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>77</v>
@@ -10471,13 +10467,13 @@
         <v>77</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K77" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="K77" t="s" s="2">
+      <c r="L77" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10528,25 +10524,25 @@
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK77" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
@@ -10557,11 +10553,11 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10580,16 +10576,16 @@
         <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L78" t="s" s="2">
-        <v>188</v>
-      </c>
       <c r="M78" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -10639,7 +10635,7 @@
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>75</v>
@@ -10651,13 +10647,13 @@
         <v>77</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
@@ -10668,11 +10664,11 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10685,25 +10681,25 @@
         <v>77</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="L79" t="s" s="2">
-        <v>264</v>
-      </c>
       <c r="M79" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="N79" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>77</v>
@@ -10752,7 +10748,7 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>75</v>
@@ -10764,13 +10760,13 @@
         <v>77</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
@@ -10781,7 +10777,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10792,7 +10788,7 @@
         <v>75</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>77</v>
@@ -10804,13 +10800,13 @@
         <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10861,36 +10857,36 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10901,7 +10897,7 @@
         <v>75</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>77</v>
@@ -10913,13 +10909,13 @@
         <v>77</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="K81" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="K81" t="s" s="2">
+      <c r="L81" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10970,25 +10966,25 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
@@ -10999,7 +10995,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11010,7 +11006,7 @@
         <v>75</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>77</v>
@@ -11022,13 +11018,13 @@
         <v>77</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11055,60 +11051,60 @@
         <v>77</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X82" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="Y82" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="Y82" t="s" s="2">
+      <c r="Z82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK82" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="Z82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK82" t="s" s="2">
+      <c r="AL82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM82" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>461</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11119,7 +11115,7 @@
         <v>75</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>77</v>
@@ -11131,13 +11127,13 @@
         <v>77</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11164,60 +11160,60 @@
         <v>77</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="X83" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="Y83" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="Y83" t="s" s="2">
+      <c r="Z83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM83" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>467</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11240,19 +11236,19 @@
         <v>77</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>77</v>
@@ -11277,14 +11273,14 @@
         <v>77</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="X84" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="Y84" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="Y84" t="s" s="2">
-        <v>474</v>
-      </c>
       <c r="Z84" t="s" s="2">
         <v>77</v>
       </c>
@@ -11301,7 +11297,7 @@
         <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>75</v>
@@ -11313,24 +11309,24 @@
         <v>77</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM84" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>476</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11353,13 +11349,13 @@
         <v>77</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -11386,14 +11382,14 @@
         <v>77</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X85" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="Y85" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="Y85" t="s" s="2">
-        <v>481</v>
-      </c>
       <c r="Z85" t="s" s="2">
         <v>77</v>
       </c>
@@ -11410,7 +11406,7 @@
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>75</v>
@@ -11422,24 +11418,24 @@
         <v>77</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM85" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>483</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11462,13 +11458,13 @@
         <v>77</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -11495,14 +11491,14 @@
         <v>77</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X86" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="Y86" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="Y86" t="s" s="2">
-        <v>488</v>
-      </c>
       <c r="Z86" t="s" s="2">
         <v>77</v>
       </c>
@@ -11519,7 +11515,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>75</v>
@@ -11531,24 +11527,24 @@
         <v>77</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM86" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>490</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11559,7 +11555,7 @@
         <v>75</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>77</v>
@@ -11571,13 +11567,13 @@
         <v>77</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11628,36 +11624,36 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM87" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>495</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11668,7 +11664,7 @@
         <v>75</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>77</v>
@@ -11680,13 +11676,13 @@
         <v>77</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -11713,60 +11709,60 @@
         <v>77</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="X88" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="Y88" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="Y88" t="s" s="2">
+      <c r="Z88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK88" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="Z88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK88" t="s" s="2">
+      <c r="AL88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM88" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>502</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11789,16 +11785,16 @@
         <v>77</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="M89" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -11848,7 +11844,7 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>75</v>
@@ -11860,13 +11856,13 @@
         <v>77</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
@@ -11877,7 +11873,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11888,7 +11884,7 @@
         <v>75</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>77</v>
@@ -11900,13 +11896,13 @@
         <v>77</v>
       </c>
       <c r="J90" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K90" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="K90" t="s" s="2">
+      <c r="L90" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11957,25 +11953,25 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK90" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>77</v>
@@ -11986,11 +11982,11 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -12009,16 +12005,16 @@
         <v>77</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L91" t="s" s="2">
-        <v>188</v>
-      </c>
       <c r="M91" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12068,7 +12064,7 @@
         <v>77</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>75</v>
@@ -12080,13 +12076,13 @@
         <v>77</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>77</v>
@@ -12097,11 +12093,11 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -12114,25 +12110,25 @@
         <v>77</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="L92" t="s" s="2">
-        <v>264</v>
-      </c>
       <c r="M92" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="N92" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>77</v>
@@ -12181,7 +12177,7 @@
         <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>75</v>
@@ -12193,13 +12189,13 @@
         <v>77</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
@@ -12210,7 +12206,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12218,10 +12214,10 @@
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>77</v>
@@ -12233,13 +12229,13 @@
         <v>77</v>
       </c>
       <c r="J93" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="K93" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="K93" t="s" s="2">
+      <c r="L93" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12290,36 +12286,36 @@
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ93" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AL93" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="AK93" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AL93" t="s" s="2">
+      <c r="AM93" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>517</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12330,7 +12326,7 @@
         <v>75</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>77</v>
@@ -12342,16 +12338,16 @@
         <v>77</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="L94" t="s" s="2">
+      <c r="M94" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -12377,49 +12373,49 @@
         <v>77</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="X94" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="Y94" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="Y94" t="s" s="2">
+      <c r="Z94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK94" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>524</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>77</v>
@@ -12430,7 +12426,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12441,7 +12437,7 @@
         <v>75</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>77</v>
@@ -12453,16 +12449,16 @@
         <v>77</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="M95" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -12488,14 +12484,14 @@
         <v>77</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="X95" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="Y95" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="Y95" t="s" s="2">
-        <v>530</v>
-      </c>
       <c r="Z95" t="s" s="2">
         <v>77</v>
       </c>
@@ -12512,19 +12508,19 @@
         <v>77</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>77</v>
@@ -12541,7 +12537,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12552,7 +12548,7 @@
         <v>75</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>77</v>
@@ -12564,13 +12560,13 @@
         <v>77</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -12621,25 +12617,25 @@
         <v>77</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>77</v>
@@ -12650,7 +12646,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12661,7 +12657,7 @@
         <v>75</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>77</v>
@@ -12673,13 +12669,13 @@
         <v>77</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -12730,36 +12726,36 @@
         <v>77</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AK97" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM97" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>538</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12770,7 +12766,7 @@
         <v>75</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>77</v>
@@ -12782,16 +12778,16 @@
         <v>77</v>
       </c>
       <c r="J98" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="K98" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="K98" t="s" s="2">
+      <c r="L98" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="M98" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -12841,25 +12837,25 @@
         <v>77</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ98" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AK98" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>77</v>
